--- a/teaching/traditional_assets/database/data/jamaica/jamaica_household_products.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_household_products.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="jmse_bpow" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0891</v>
+        <v>-0.127</v>
       </c>
       <c r="E2">
-        <v>0.0699</v>
+        <v>0.0283</v>
       </c>
       <c r="G2">
-        <v>0.09579831932773109</v>
+        <v>0.06564102564102564</v>
       </c>
       <c r="H2">
-        <v>0.09579831932773109</v>
+        <v>0.06564102564102564</v>
       </c>
       <c r="I2">
-        <v>0.07159663865546217</v>
+        <v>0.0417948717948718</v>
       </c>
       <c r="J2">
-        <v>0.06263149433686517</v>
+        <v>0.02976757055893747</v>
       </c>
       <c r="K2">
-        <v>0.917</v>
+        <v>0.396</v>
       </c>
       <c r="L2">
-        <v>0.07705882352941176</v>
+        <v>0.1015384615384615</v>
       </c>
       <c r="M2">
-        <v>0.08699999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="N2">
-        <v>0.004046511627906976</v>
+        <v>0.004464285714285715</v>
       </c>
       <c r="O2">
-        <v>0.09487459105779715</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="P2">
-        <v>0.08699999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="Q2">
-        <v>0.004046511627906976</v>
+        <v>0.004464285714285715</v>
       </c>
       <c r="R2">
-        <v>0.09487459105779715</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.3</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="V2">
-        <v>0.06046511627906977</v>
+        <v>0.08321428571428573</v>
       </c>
       <c r="W2">
-        <v>0.14</v>
+        <v>0.05649072753209701</v>
       </c>
       <c r="X2">
-        <v>0.1216613200785929</v>
+        <v>0.09741106230163982</v>
       </c>
       <c r="Y2">
-        <v>0.01833867992140714</v>
+        <v>-0.04092033476954281</v>
       </c>
       <c r="Z2">
-        <v>2.365805168986084</v>
+        <v>0.6830122591943958</v>
       </c>
       <c r="AA2">
-        <v>0.1481739130434783</v>
+        <v>0.02033161561818846</v>
       </c>
       <c r="AB2">
-        <v>0.1216613200785929</v>
+        <v>0.0971214390068352</v>
       </c>
       <c r="AC2">
-        <v>0.02651259296488542</v>
+        <v>-0.07678982338864673</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AG2">
-        <v>-1.3</v>
+        <v>-0.8470000000000001</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.007532122286220647</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.01218637992831541</v>
       </c>
       <c r="AJ2">
-        <v>-0.06435643564356436</v>
+        <v>-0.08181203515889116</v>
       </c>
       <c r="AK2">
-        <v>-0.2276707530647986</v>
+        <v>-0.1401621711070661</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="AM2">
-        <v>-0.164</v>
+        <v>-0.108</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="AO2">
+        <v>14.81818181818182</v>
       </c>
       <c r="AP2">
-        <v>-1.327885597548519</v>
+        <v>-3.08</v>
       </c>
       <c r="AQ2">
-        <v>-5.195121951219511</v>
+        <v>-1.509259259259259</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +727,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0891</v>
+        <v>-0.127</v>
       </c>
       <c r="E3">
-        <v>0.0699</v>
+        <v>0.0283</v>
       </c>
       <c r="G3">
-        <v>0.09579831932773109</v>
+        <v>0.06564102564102564</v>
       </c>
       <c r="H3">
-        <v>0.09579831932773109</v>
+        <v>0.06564102564102564</v>
       </c>
       <c r="I3">
-        <v>0.07159663865546217</v>
+        <v>0.0417948717948718</v>
       </c>
       <c r="J3">
-        <v>0.06263149433686517</v>
+        <v>0.02976757055893747</v>
       </c>
       <c r="K3">
-        <v>0.917</v>
+        <v>0.396</v>
       </c>
       <c r="L3">
-        <v>0.07705882352941176</v>
+        <v>0.1015384615384615</v>
       </c>
       <c r="M3">
-        <v>0.08699999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="N3">
-        <v>0.004046511627906976</v>
+        <v>0.004464285714285715</v>
       </c>
       <c r="O3">
-        <v>0.09487459105779715</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="P3">
-        <v>0.08699999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="Q3">
-        <v>0.004046511627906976</v>
+        <v>0.004464285714285715</v>
       </c>
       <c r="R3">
-        <v>0.09487459105779715</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +775,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.3</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="V3">
-        <v>0.06046511627906977</v>
+        <v>0.08321428571428573</v>
       </c>
       <c r="W3">
+        <v>0.05649072753209701</v>
+      </c>
+      <c r="X3">
+        <v>0.09741106230163982</v>
+      </c>
+      <c r="Y3">
+        <v>-0.04092033476954281</v>
+      </c>
+      <c r="Z3">
+        <v>0.6830122591943958</v>
+      </c>
+      <c r="AA3">
+        <v>0.02033161561818846</v>
+      </c>
+      <c r="AB3">
+        <v>0.0971214390068352</v>
+      </c>
+      <c r="AC3">
+        <v>-0.07678982338864673</v>
+      </c>
+      <c r="AD3">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>-0.8470000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.007532122286220647</v>
+      </c>
+      <c r="AI3">
+        <v>0.01218637992831541</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.08181203515889116</v>
+      </c>
+      <c r="AK3">
+        <v>-0.1401621711070661</v>
+      </c>
+      <c r="AL3">
+        <v>0.011</v>
+      </c>
+      <c r="AM3">
+        <v>-0.108</v>
+      </c>
+      <c r="AN3">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="AO3">
+        <v>14.81818181818182</v>
+      </c>
+      <c r="AP3">
+        <v>-3.08</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.509259259259259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Blue Power Group Limited (JMSE:BPOW)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JMSE:BPOW</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Household Products</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00753212228622065</v>
+      </c>
+      <c r="F2">
         <v>0.14</v>
       </c>
-      <c r="X3">
-        <v>0.1216613200785929</v>
+      <c r="G2">
+        <v>11.2</v>
+      </c>
+      <c r="H2">
+        <v>9.97167283283091</v>
+      </c>
+      <c r="I2">
+        <v>10.353</v>
+      </c>
+      <c r="J2">
+        <v>10.6195728328309</v>
+      </c>
+      <c r="K2">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="L2">
+        <v>1.5799</v>
+      </c>
+      <c r="M2">
+        <v>0.0971214390068352</v>
+      </c>
+      <c r="N2">
+        <v>0.09491694263510141</v>
+      </c>
+      <c r="O2">
+        <v>0.058959310750227</v>
+      </c>
+      <c r="P2">
+        <v>0.01695</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0974110623016398</v>
+      </c>
+      <c r="T2">
+        <v>0.107609235622211</v>
+      </c>
+      <c r="U2">
+        <v>0.87674971005306</v>
+      </c>
+      <c r="V2">
+        <v>0.97822670134471</v>
+      </c>
+      <c r="W2">
+        <v>4.565092335293989</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>11.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.07861241433363596</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.275</v>
+      </c>
+      <c r="AH2">
+        <v>0.112</v>
+      </c>
+      <c r="AI2">
+        <v>0.352</v>
+      </c>
+      <c r="AJ2">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AK2">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0.011</v>
+      </c>
+      <c r="AM2">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09691237578766983</v>
+      </c>
+      <c r="C2">
+        <v>11.30970463206322</v>
+      </c>
+      <c r="D2">
+        <v>10.37770463206322</v>
+      </c>
+      <c r="E2">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H2">
+        <v>11.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.275</v>
+      </c>
+      <c r="K2">
+        <v>0.112</v>
+      </c>
+      <c r="L2">
+        <v>0.163</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.163</v>
+      </c>
+      <c r="O2">
+        <v>0.04075</v>
+      </c>
+      <c r="P2">
+        <v>0.12225</v>
+      </c>
+      <c r="Q2">
+        <v>0.23425</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.09691237578766983</v>
+      </c>
+      <c r="T2">
+        <v>0.8717875265869959</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>0.01215</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09672184484820065</v>
+      </c>
+      <c r="C3">
+        <v>11.21947224916469</v>
+      </c>
+      <c r="D3">
+        <v>10.40032224916469</v>
+      </c>
+      <c r="E3">
+        <v>0.02785</v>
+      </c>
+      <c r="F3">
+        <v>0.11285</v>
+      </c>
+      <c r="G3">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H3">
+        <v>11.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.275</v>
+      </c>
+      <c r="K3">
+        <v>0.112</v>
+      </c>
+      <c r="L3">
+        <v>0.163</v>
+      </c>
+      <c r="M3">
+        <v>0.00182817</v>
+      </c>
+      <c r="N3">
+        <v>0.16117183</v>
+      </c>
+      <c r="O3">
+        <v>0.0402929575</v>
+      </c>
+      <c r="P3">
+        <v>0.1208788725</v>
+      </c>
+      <c r="Q3">
+        <v>0.2328788725</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.09757610590727339</v>
+      </c>
+      <c r="T3">
+        <v>0.8783919775459883</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>0.01215</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>0.01833867992140714</v>
+        <v>89.16019844981594</v>
       </c>
       <c r="Z3">
-        <v>2.365805168986084</v>
-      </c>
-      <c r="AA3">
-        <v>0.1481739130434783</v>
-      </c>
-      <c r="AB3">
-        <v>0.1216613200785929</v>
-      </c>
-      <c r="AC3">
-        <v>0.02651259296488542</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-1.3</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.06435643564356436</v>
-      </c>
-      <c r="AK3">
-        <v>-0.2276707530647986</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-0.164</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>-1.327885597548519</v>
-      </c>
-      <c r="AQ3">
-        <v>-5.195121951219511</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09653131390873149</v>
+      </c>
+      <c r="C4">
+        <v>11.12933866922216</v>
+      </c>
+      <c r="D4">
+        <v>10.42303866922216</v>
+      </c>
+      <c r="E4">
+        <v>0.1407</v>
+      </c>
+      <c r="F4">
+        <v>0.2257</v>
+      </c>
+      <c r="G4">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H4">
+        <v>11.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.275</v>
+      </c>
+      <c r="K4">
+        <v>0.112</v>
+      </c>
+      <c r="L4">
+        <v>0.163</v>
+      </c>
+      <c r="M4">
+        <v>0.00365634</v>
+      </c>
+      <c r="N4">
+        <v>0.15934366</v>
+      </c>
+      <c r="O4">
+        <v>0.039835915</v>
+      </c>
+      <c r="P4">
+        <v>0.119507745</v>
+      </c>
+      <c r="Q4">
+        <v>0.231507745</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.09825338153952193</v>
+      </c>
+      <c r="T4">
+        <v>0.8851312132184296</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.01215</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>44.58009922490797</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.0963407829692623</v>
+      </c>
+      <c r="C5">
+        <v>11.03930454107009</v>
+      </c>
+      <c r="D5">
+        <v>10.44585454107009</v>
+      </c>
+      <c r="E5">
+        <v>0.25355</v>
+      </c>
+      <c r="F5">
+        <v>0.33855</v>
+      </c>
+      <c r="G5">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H5">
+        <v>11.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.275</v>
+      </c>
+      <c r="K5">
+        <v>0.112</v>
+      </c>
+      <c r="L5">
+        <v>0.163</v>
+      </c>
+      <c r="M5">
+        <v>0.00548451</v>
+      </c>
+      <c r="N5">
+        <v>0.15751549</v>
+      </c>
+      <c r="O5">
+        <v>0.0393788725</v>
+      </c>
+      <c r="P5">
+        <v>0.1181366175</v>
+      </c>
+      <c r="Q5">
+        <v>0.2301366175</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.09894462161779619</v>
+      </c>
+      <c r="T5">
+        <v>0.8920094022037045</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>0.01215</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>29.72006614993865</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09615025202979313</v>
+      </c>
+      <c r="C6">
+        <v>10.94937051923658</v>
+      </c>
+      <c r="D6">
+        <v>10.46877051923658</v>
+      </c>
+      <c r="E6">
+        <v>0.3664</v>
+      </c>
+      <c r="F6">
+        <v>0.4514</v>
+      </c>
+      <c r="G6">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H6">
+        <v>11.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.275</v>
+      </c>
+      <c r="K6">
+        <v>0.112</v>
+      </c>
+      <c r="L6">
+        <v>0.163</v>
+      </c>
+      <c r="M6">
+        <v>0.00731268</v>
+      </c>
+      <c r="N6">
+        <v>0.15568732</v>
+      </c>
+      <c r="O6">
+        <v>0.03892183</v>
+      </c>
+      <c r="P6">
+        <v>0.11676549</v>
+      </c>
+      <c r="Q6">
+        <v>0.22876549</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.09965026253103451</v>
+      </c>
+      <c r="T6">
+        <v>0.8990308867928395</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <v>0.01215</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>22.29004961245398</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09595972109032395</v>
+      </c>
+      <c r="C7">
+        <v>10.85953726400591</v>
+      </c>
+      <c r="D7">
+        <v>10.49178726400591</v>
+      </c>
+      <c r="E7">
+        <v>0.47925</v>
+      </c>
+      <c r="F7">
+        <v>0.56425</v>
+      </c>
+      <c r="G7">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H7">
+        <v>11.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.275</v>
+      </c>
+      <c r="K7">
+        <v>0.112</v>
+      </c>
+      <c r="L7">
+        <v>0.163</v>
+      </c>
+      <c r="M7">
+        <v>0.009140850000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.15385915</v>
+      </c>
+      <c r="O7">
+        <v>0.0384647875</v>
+      </c>
+      <c r="P7">
+        <v>0.1153943625</v>
+      </c>
+      <c r="Q7">
+        <v>0.2273943625</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1003707590424463</v>
+      </c>
+      <c r="T7">
+        <v>0.9062001921101668</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <v>0.01215</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>17.83203968996319</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.09576919015085478</v>
+      </c>
+      <c r="C8">
+        <v>10.769805441482</v>
+      </c>
+      <c r="D8">
+        <v>10.514905441482</v>
+      </c>
+      <c r="E8">
+        <v>0.5921000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.6771</v>
+      </c>
+      <c r="G8">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H8">
+        <v>11.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.275</v>
+      </c>
+      <c r="K8">
+        <v>0.112</v>
+      </c>
+      <c r="L8">
+        <v>0.163</v>
+      </c>
+      <c r="M8">
+        <v>0.01096902</v>
+      </c>
+      <c r="N8">
+        <v>0.15203098</v>
+      </c>
+      <c r="O8">
+        <v>0.038007745</v>
+      </c>
+      <c r="P8">
+        <v>0.114023235</v>
+      </c>
+      <c r="Q8">
+        <v>0.226023235</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1011065852668668</v>
+      </c>
+      <c r="T8">
+        <v>0.913522035838501</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.01215</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>14.86003307496932</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.0956626592113856</v>
+      </c>
+      <c r="C9">
+        <v>10.66992589382031</v>
+      </c>
+      <c r="D9">
+        <v>10.52787589382031</v>
+      </c>
+      <c r="E9">
+        <v>0.7049500000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.78995</v>
+      </c>
+      <c r="G9">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H9">
+        <v>11.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.275</v>
+      </c>
+      <c r="K9">
+        <v>0.112</v>
+      </c>
+      <c r="L9">
+        <v>0.163</v>
+      </c>
+      <c r="M9">
+        <v>0.01406111</v>
+      </c>
+      <c r="N9">
+        <v>0.14893889</v>
+      </c>
+      <c r="O9">
+        <v>0.0372347225</v>
+      </c>
+      <c r="P9">
+        <v>0.1117041675</v>
+      </c>
+      <c r="Q9">
+        <v>0.2237041675</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1018582357111673</v>
+      </c>
+      <c r="T9">
+        <v>0.9210013385717456</v>
+      </c>
+      <c r="U9">
+        <v>0.0178</v>
+      </c>
+      <c r="V9">
+        <v>0.25</v>
+      </c>
+      <c r="W9">
+        <v>0.01335</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>11.59225694130833</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.09561612827191644</v>
+      </c>
+      <c r="C10">
+        <v>10.56275121737526</v>
+      </c>
+      <c r="D10">
+        <v>10.53355121737526</v>
+      </c>
+      <c r="E10">
+        <v>0.8178000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.9028</v>
+      </c>
+      <c r="G10">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H10">
+        <v>11.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.275</v>
+      </c>
+      <c r="K10">
+        <v>0.112</v>
+      </c>
+      <c r="L10">
+        <v>0.163</v>
+      </c>
+      <c r="M10">
+        <v>0.018056</v>
+      </c>
+      <c r="N10">
+        <v>0.144944</v>
+      </c>
+      <c r="O10">
+        <v>0.036236</v>
+      </c>
+      <c r="P10">
+        <v>0.108708</v>
+      </c>
+      <c r="Q10">
+        <v>0.220708</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1026262263825179</v>
+      </c>
+      <c r="T10">
+        <v>0.9286432348426695</v>
+      </c>
+      <c r="U10">
+        <v>0.02</v>
+      </c>
+      <c r="V10">
+        <v>0.25</v>
+      </c>
+      <c r="W10">
+        <v>0.015</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>9.027470093043865</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.09545409733244727</v>
+      </c>
+      <c r="C11">
+        <v>10.46971178068616</v>
+      </c>
+      <c r="D11">
+        <v>10.55336178068617</v>
+      </c>
+      <c r="E11">
+        <v>0.93065</v>
+      </c>
+      <c r="F11">
+        <v>1.01565</v>
+      </c>
+      <c r="G11">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H11">
+        <v>11.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.275</v>
+      </c>
+      <c r="K11">
+        <v>0.112</v>
+      </c>
+      <c r="L11">
+        <v>0.163</v>
+      </c>
+      <c r="M11">
+        <v>0.02031299999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.142687</v>
+      </c>
+      <c r="O11">
+        <v>0.03567175</v>
+      </c>
+      <c r="P11">
+        <v>0.10701525</v>
+      </c>
+      <c r="Q11">
+        <v>0.21901525</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1034110959697223</v>
+      </c>
+      <c r="T11">
+        <v>0.9364530848777894</v>
+      </c>
+      <c r="U11">
+        <v>0.02</v>
+      </c>
+      <c r="V11">
+        <v>0.25</v>
+      </c>
+      <c r="W11">
+        <v>0.015</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>8.024417860483437</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.09537456639297807</v>
+      </c>
+      <c r="C12">
+        <v>10.36661284667637</v>
+      </c>
+      <c r="D12">
+        <v>10.56311284667637</v>
+      </c>
+      <c r="E12">
+        <v>1.0435</v>
+      </c>
+      <c r="F12">
+        <v>1.1285</v>
+      </c>
+      <c r="G12">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H12">
+        <v>11.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.275</v>
+      </c>
+      <c r="K12">
+        <v>0.112</v>
+      </c>
+      <c r="L12">
+        <v>0.163</v>
+      </c>
+      <c r="M12">
+        <v>0.02381135</v>
+      </c>
+      <c r="N12">
+        <v>0.13918865</v>
+      </c>
+      <c r="O12">
+        <v>0.0347971625</v>
+      </c>
+      <c r="P12">
+        <v>0.1043914875</v>
+      </c>
+      <c r="Q12">
+        <v>0.2163914875</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.104213407103309</v>
+      </c>
+      <c r="T12">
+        <v>0.9444364871359121</v>
+      </c>
+      <c r="U12">
+        <v>0.0211</v>
+      </c>
+      <c r="V12">
+        <v>0.25</v>
+      </c>
+      <c r="W12">
+        <v>0.015825</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>6.845474952071176</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09534453545350892</v>
+      </c>
+      <c r="C13">
+        <v>10.25744954451061</v>
+      </c>
+      <c r="D13">
+        <v>10.56679954451061</v>
+      </c>
+      <c r="E13">
+        <v>1.15635</v>
+      </c>
+      <c r="F13">
+        <v>1.24135</v>
+      </c>
+      <c r="G13">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H13">
+        <v>11.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.275</v>
+      </c>
+      <c r="K13">
+        <v>0.112</v>
+      </c>
+      <c r="L13">
+        <v>0.163</v>
+      </c>
+      <c r="M13">
+        <v>0.02805451</v>
+      </c>
+      <c r="N13">
+        <v>0.13494549</v>
+      </c>
+      <c r="O13">
+        <v>0.0337363725</v>
+      </c>
+      <c r="P13">
+        <v>0.1012091175</v>
+      </c>
+      <c r="Q13">
+        <v>0.2132091175</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1050337477005718</v>
+      </c>
+      <c r="T13">
+        <v>0.9525992916919702</v>
+      </c>
+      <c r="U13">
+        <v>0.0226</v>
+      </c>
+      <c r="V13">
+        <v>0.25</v>
+      </c>
+      <c r="W13">
+        <v>0.01695</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>5.810117517646896</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09520200451403972</v>
+      </c>
+      <c r="C14">
+        <v>10.16213226536831</v>
+      </c>
+      <c r="D14">
+        <v>10.58433226536831</v>
+      </c>
+      <c r="E14">
+        <v>1.2692</v>
+      </c>
+      <c r="F14">
+        <v>1.3542</v>
+      </c>
+      <c r="G14">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H14">
+        <v>11.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.275</v>
+      </c>
+      <c r="K14">
+        <v>0.112</v>
+      </c>
+      <c r="L14">
+        <v>0.163</v>
+      </c>
+      <c r="M14">
+        <v>0.03060492</v>
+      </c>
+      <c r="N14">
+        <v>0.13239508</v>
+      </c>
+      <c r="O14">
+        <v>0.03309877</v>
+      </c>
+      <c r="P14">
+        <v>0.09929631</v>
+      </c>
+      <c r="Q14">
+        <v>0.21129631</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1058727324023179</v>
+      </c>
+      <c r="T14">
+        <v>0.9609476145333932</v>
+      </c>
+      <c r="U14">
+        <v>0.0226</v>
+      </c>
+      <c r="V14">
+        <v>0.25</v>
+      </c>
+      <c r="W14">
+        <v>0.01695</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>5.325941057842988</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09505947357457055</v>
+      </c>
+      <c r="C15">
+        <v>10.0668732644563</v>
+      </c>
+      <c r="D15">
+        <v>10.6019232644563</v>
+      </c>
+      <c r="E15">
+        <v>1.38205</v>
+      </c>
+      <c r="F15">
+        <v>1.46705</v>
+      </c>
+      <c r="G15">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H15">
+        <v>11.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.275</v>
+      </c>
+      <c r="K15">
+        <v>0.112</v>
+      </c>
+      <c r="L15">
+        <v>0.163</v>
+      </c>
+      <c r="M15">
+        <v>0.03315533</v>
+      </c>
+      <c r="N15">
+        <v>0.12984467</v>
+      </c>
+      <c r="O15">
+        <v>0.0324611675</v>
+      </c>
+      <c r="P15">
+        <v>0.0973835025</v>
+      </c>
+      <c r="Q15">
+        <v>0.2093835025</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1067310041087018</v>
+      </c>
+      <c r="T15">
+        <v>0.969487852842435</v>
+      </c>
+      <c r="U15">
+        <v>0.0226</v>
+      </c>
+      <c r="V15">
+        <v>0.25</v>
+      </c>
+      <c r="W15">
+        <v>0.01695</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>4.916253284162758</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.09491694263510138</v>
+      </c>
+      <c r="C16">
+        <v>9.971672832830906</v>
+      </c>
+      <c r="D16">
+        <v>10.61957283283091</v>
+      </c>
+      <c r="E16">
+        <v>1.4949</v>
+      </c>
+      <c r="F16">
+        <v>1.5799</v>
+      </c>
+      <c r="G16">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H16">
+        <v>11.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.275</v>
+      </c>
+      <c r="K16">
+        <v>0.112</v>
+      </c>
+      <c r="L16">
+        <v>0.163</v>
+      </c>
+      <c r="M16">
+        <v>0.03570574</v>
+      </c>
+      <c r="N16">
+        <v>0.12729426</v>
+      </c>
+      <c r="O16">
+        <v>0.031823565</v>
+      </c>
+      <c r="P16">
+        <v>0.09547069499999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.207470695</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1076092356222109</v>
+      </c>
+      <c r="T16">
+        <v>0.9782267013447105</v>
+      </c>
+      <c r="U16">
+        <v>0.0226</v>
+      </c>
+      <c r="V16">
+        <v>0.25</v>
+      </c>
+      <c r="W16">
+        <v>0.01695</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>4.565092335293989</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.105353935999246</v>
+      </c>
+      <c r="C17">
+        <v>8.704925181128463</v>
+      </c>
+      <c r="D17">
+        <v>9.465675181128463</v>
+      </c>
+      <c r="E17">
+        <v>1.60775</v>
+      </c>
+      <c r="F17">
+        <v>1.69275</v>
+      </c>
+      <c r="G17">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H17">
+        <v>11.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.275</v>
+      </c>
+      <c r="K17">
+        <v>0.112</v>
+      </c>
+      <c r="L17">
+        <v>0.163</v>
+      </c>
+      <c r="M17">
+        <v>0.18450975</v>
+      </c>
+      <c r="N17">
+        <v>-0.02150974999999999</v>
+      </c>
+      <c r="O17">
+        <v>-0.005377437499999999</v>
+      </c>
+      <c r="P17">
+        <v>-0.0161323125</v>
+      </c>
+      <c r="Q17">
+        <v>0.09586768750000002</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1089587341605454</v>
+      </c>
+      <c r="T17">
+        <v>0.9916548955043868</v>
+      </c>
+      <c r="U17">
+        <v>0.109</v>
+      </c>
+      <c r="V17">
+        <v>0.2208555374444982</v>
+      </c>
+      <c r="W17">
+        <v>0.08492674641854969</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.8834221497779928</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.106350935999246</v>
+      </c>
+      <c r="C18">
+        <v>8.494834716021993</v>
+      </c>
+      <c r="D18">
+        <v>9.368434716021993</v>
+      </c>
+      <c r="E18">
+        <v>1.7206</v>
+      </c>
+      <c r="F18">
+        <v>1.8056</v>
+      </c>
+      <c r="G18">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H18">
+        <v>11.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.275</v>
+      </c>
+      <c r="K18">
+        <v>0.112</v>
+      </c>
+      <c r="L18">
+        <v>0.163</v>
+      </c>
+      <c r="M18">
+        <v>0.1968104</v>
+      </c>
+      <c r="N18">
+        <v>-0.03381039999999999</v>
+      </c>
+      <c r="O18">
+        <v>-0.008452599999999998</v>
+      </c>
+      <c r="P18">
+        <v>-0.02535779999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.08664220000000003</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1101451476624566</v>
+      </c>
+      <c r="T18">
+        <v>1.003460310927058</v>
+      </c>
+      <c r="U18">
+        <v>0.109</v>
+      </c>
+      <c r="V18">
+        <v>0.2070520663542171</v>
+      </c>
+      <c r="W18">
+        <v>0.08643132476739035</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.8282082654168683</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1132978453761193</v>
+      </c>
+      <c r="C19">
+        <v>7.756186491645481</v>
+      </c>
+      <c r="D19">
+        <v>8.742636491645481</v>
+      </c>
+      <c r="E19">
+        <v>1.83345</v>
+      </c>
+      <c r="F19">
+        <v>1.91845</v>
+      </c>
+      <c r="G19">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H19">
+        <v>11.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.275</v>
+      </c>
+      <c r="K19">
+        <v>0.112</v>
+      </c>
+      <c r="L19">
+        <v>0.163</v>
+      </c>
+      <c r="M19">
+        <v>0.26896669</v>
+      </c>
+      <c r="N19">
+        <v>-0.10596669</v>
+      </c>
+      <c r="O19">
+        <v>-0.0264916725</v>
+      </c>
+      <c r="P19">
+        <v>-0.07947501749999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.03252498250000002</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1121383535100444</v>
+      </c>
+      <c r="T19">
+        <v>1.023293718938485</v>
+      </c>
+      <c r="U19">
+        <v>0.1402</v>
+      </c>
+      <c r="V19">
+        <v>0.1515057496524941</v>
+      </c>
+      <c r="W19">
+        <v>0.1189588938987203</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.6060229986099765</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1146068453761193</v>
+      </c>
+      <c r="C20">
+        <v>7.534662538620969</v>
+      </c>
+      <c r="D20">
+        <v>8.633962538620969</v>
+      </c>
+      <c r="E20">
+        <v>1.9463</v>
+      </c>
+      <c r="F20">
+        <v>2.0313</v>
+      </c>
+      <c r="G20">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H20">
+        <v>11.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.275</v>
+      </c>
+      <c r="K20">
+        <v>0.112</v>
+      </c>
+      <c r="L20">
+        <v>0.163</v>
+      </c>
+      <c r="M20">
+        <v>0.28478826</v>
+      </c>
+      <c r="N20">
+        <v>-0.12178826</v>
+      </c>
+      <c r="O20">
+        <v>-0.03044706499999999</v>
+      </c>
+      <c r="P20">
+        <v>-0.09134119499999996</v>
+      </c>
+      <c r="Q20">
+        <v>0.02065880500000006</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.113392479772362</v>
+      </c>
+      <c r="T20">
+        <v>1.035772910632856</v>
+      </c>
+      <c r="U20">
+        <v>0.1402</v>
+      </c>
+      <c r="V20">
+        <v>0.1430887635606889</v>
+      </c>
+      <c r="W20">
+        <v>0.1201389553487914</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.5723550542427558</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1159158453761193</v>
+      </c>
+      <c r="C21">
+        <v>7.315807123354746</v>
+      </c>
+      <c r="D21">
+        <v>8.527957123354746</v>
+      </c>
+      <c r="E21">
+        <v>2.05915</v>
+      </c>
+      <c r="F21">
+        <v>2.14415</v>
+      </c>
+      <c r="G21">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H21">
+        <v>11.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.275</v>
+      </c>
+      <c r="K21">
+        <v>0.112</v>
+      </c>
+      <c r="L21">
+        <v>0.163</v>
+      </c>
+      <c r="M21">
+        <v>0.30060983</v>
+      </c>
+      <c r="N21">
+        <v>-0.13760983</v>
+      </c>
+      <c r="O21">
+        <v>-0.0344024575</v>
+      </c>
+      <c r="P21">
+        <v>-0.1032073725</v>
+      </c>
+      <c r="Q21">
+        <v>0.008792627500000011</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1146775721152307</v>
+      </c>
+      <c r="T21">
+        <v>1.048560230517213</v>
+      </c>
+      <c r="U21">
+        <v>0.1402</v>
+      </c>
+      <c r="V21">
+        <v>0.1355577760048632</v>
+      </c>
+      <c r="W21">
+        <v>0.1211947998041182</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.5422311040194527</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1172248453761193</v>
+      </c>
+      <c r="C22">
+        <v>7.099523147280305</v>
+      </c>
+      <c r="D22">
+        <v>8.424523147280304</v>
+      </c>
+      <c r="E22">
+        <v>2.172</v>
+      </c>
+      <c r="F22">
+        <v>2.257</v>
+      </c>
+      <c r="G22">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H22">
+        <v>11.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.275</v>
+      </c>
+      <c r="K22">
+        <v>0.112</v>
+      </c>
+      <c r="L22">
+        <v>0.163</v>
+      </c>
+      <c r="M22">
+        <v>0.3164314</v>
+      </c>
+      <c r="N22">
+        <v>-0.1534314</v>
+      </c>
+      <c r="O22">
+        <v>-0.03835784999999999</v>
+      </c>
+      <c r="P22">
+        <v>-0.11507355</v>
+      </c>
+      <c r="Q22">
+        <v>-0.003073549999999953</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1159947917666711</v>
+      </c>
+      <c r="T22">
+        <v>1.061667233398678</v>
+      </c>
+      <c r="U22">
+        <v>0.1402</v>
+      </c>
+      <c r="V22">
+        <v>0.12877988720462</v>
+      </c>
+      <c r="W22">
+        <v>0.1221450598139123</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.5151195488184801</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1282031926449461</v>
+      </c>
+      <c r="C23">
+        <v>6.208835827459238</v>
+      </c>
+      <c r="D23">
+        <v>7.646685827459237</v>
+      </c>
+      <c r="E23">
+        <v>2.28485</v>
+      </c>
+      <c r="F23">
+        <v>2.36985</v>
+      </c>
+      <c r="G23">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H23">
+        <v>11.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.275</v>
+      </c>
+      <c r="K23">
+        <v>0.112</v>
+      </c>
+      <c r="L23">
+        <v>0.163</v>
+      </c>
+      <c r="M23">
+        <v>0.435341445</v>
+      </c>
+      <c r="N23">
+        <v>-0.272341445</v>
+      </c>
+      <c r="O23">
+        <v>-0.06808536125</v>
+      </c>
+      <c r="P23">
+        <v>-0.20425608375</v>
+      </c>
+      <c r="Q23">
+        <v>-0.09225608375</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1180217476989413</v>
+      </c>
+      <c r="T23">
+        <v>1.081836471851671</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.09360468769519521</v>
+      </c>
+      <c r="W23">
+        <v>0.1665048188703926</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.3744187507807808</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1299471926449461</v>
+      </c>
+      <c r="C24">
+        <v>5.985450142452997</v>
+      </c>
+      <c r="D24">
+        <v>7.536150142452997</v>
+      </c>
+      <c r="E24">
+        <v>2.3977</v>
+      </c>
+      <c r="F24">
+        <v>2.4827</v>
+      </c>
+      <c r="G24">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H24">
+        <v>11.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.275</v>
+      </c>
+      <c r="K24">
+        <v>0.112</v>
+      </c>
+      <c r="L24">
+        <v>0.163</v>
+      </c>
+      <c r="M24">
+        <v>0.45607199</v>
+      </c>
+      <c r="N24">
+        <v>-0.2930719899999999</v>
+      </c>
+      <c r="O24">
+        <v>-0.07326799749999999</v>
+      </c>
+      <c r="P24">
+        <v>-0.2198039925</v>
+      </c>
+      <c r="Q24">
+        <v>-0.1078039924999999</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1194156162591842</v>
+      </c>
+      <c r="T24">
+        <v>1.095706170208744</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.08934992916359542</v>
+      </c>
+      <c r="W24">
+        <v>0.1672864180126475</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.3573997166543817</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1316911926449461</v>
+      </c>
+      <c r="C25">
+        <v>5.76521458991111</v>
+      </c>
+      <c r="D25">
+        <v>7.42876458991111</v>
+      </c>
+      <c r="E25">
+        <v>2.51055</v>
+      </c>
+      <c r="F25">
+        <v>2.59555</v>
+      </c>
+      <c r="G25">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H25">
+        <v>11.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.275</v>
+      </c>
+      <c r="K25">
+        <v>0.112</v>
+      </c>
+      <c r="L25">
+        <v>0.163</v>
+      </c>
+      <c r="M25">
+        <v>0.476802535</v>
+      </c>
+      <c r="N25">
+        <v>-0.313802535</v>
+      </c>
+      <c r="O25">
+        <v>-0.07845063375</v>
+      </c>
+      <c r="P25">
+        <v>-0.23535190125</v>
+      </c>
+      <c r="Q25">
+        <v>-0.12335190125</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1208456891976151</v>
+      </c>
+      <c r="T25">
+        <v>1.109936120471195</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.08546514963474344</v>
+      </c>
+      <c r="W25">
+        <v>0.1680000520120976</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.3418605985389739</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1334351926449461</v>
+      </c>
+      <c r="C26">
+        <v>5.547996399321828</v>
+      </c>
+      <c r="D26">
+        <v>7.324396399321827</v>
+      </c>
+      <c r="E26">
+        <v>2.6234</v>
+      </c>
+      <c r="F26">
+        <v>2.7084</v>
+      </c>
+      <c r="G26">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H26">
+        <v>11.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.275</v>
+      </c>
+      <c r="K26">
+        <v>0.112</v>
+      </c>
+      <c r="L26">
+        <v>0.163</v>
+      </c>
+      <c r="M26">
+        <v>0.49753308</v>
+      </c>
+      <c r="N26">
+        <v>-0.33453308</v>
+      </c>
+      <c r="O26">
+        <v>-0.08363327000000001</v>
+      </c>
+      <c r="P26">
+        <v>-0.2508998100000001</v>
+      </c>
+      <c r="Q26">
+        <v>-0.13889981</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1223133956344259</v>
+      </c>
+      <c r="T26">
+        <v>1.124540543108974</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.08190410173329581</v>
+      </c>
+      <c r="W26">
+        <v>0.1686542165115936</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.3276164069331832</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1351791926449461</v>
+      </c>
+      <c r="C27">
+        <v>5.333670158077997</v>
+      </c>
+      <c r="D27">
+        <v>7.222920158077998</v>
+      </c>
+      <c r="E27">
+        <v>2.73625</v>
+      </c>
+      <c r="F27">
+        <v>2.82125</v>
+      </c>
+      <c r="G27">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H27">
+        <v>11.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.275</v>
+      </c>
+      <c r="K27">
+        <v>0.112</v>
+      </c>
+      <c r="L27">
+        <v>0.163</v>
+      </c>
+      <c r="M27">
+        <v>0.518263625</v>
+      </c>
+      <c r="N27">
+        <v>-0.355263625</v>
+      </c>
+      <c r="O27">
+        <v>-0.08881590624999999</v>
+      </c>
+      <c r="P27">
+        <v>-0.26644771875</v>
+      </c>
+      <c r="Q27">
+        <v>-0.1544477187499999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1238202409095515</v>
+      </c>
+      <c r="T27">
+        <v>1.139534417017093</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.07862793766396398</v>
+      </c>
+      <c r="W27">
+        <v>0.1692560478511298</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.3145117506558559</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1369231926449461</v>
+      </c>
+      <c r="C28">
+        <v>5.122117308739846</v>
+      </c>
+      <c r="D28">
+        <v>7.124217308739847</v>
+      </c>
+      <c r="E28">
+        <v>2.8491</v>
+      </c>
+      <c r="F28">
+        <v>2.9341</v>
+      </c>
+      <c r="G28">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H28">
+        <v>11.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.275</v>
+      </c>
+      <c r="K28">
+        <v>0.112</v>
+      </c>
+      <c r="L28">
+        <v>0.163</v>
+      </c>
+      <c r="M28">
+        <v>0.5389941699999999</v>
+      </c>
+      <c r="N28">
+        <v>-0.3759941699999999</v>
+      </c>
+      <c r="O28">
+        <v>-0.09399854249999998</v>
+      </c>
+      <c r="P28">
+        <v>-0.2819956275</v>
+      </c>
+      <c r="Q28">
+        <v>-0.1699956274999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1253678117326536</v>
+      </c>
+      <c r="T28">
+        <v>1.154933530760567</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.07560378621534998</v>
+      </c>
+      <c r="W28">
+        <v>0.1698115844722402</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.3024151448614</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1386671926449461</v>
+      </c>
+      <c r="C29">
+        <v>4.913225686962196</v>
+      </c>
+      <c r="D29">
+        <v>7.028175686962197</v>
+      </c>
+      <c r="E29">
+        <v>2.96195</v>
+      </c>
+      <c r="F29">
+        <v>3.04695</v>
+      </c>
+      <c r="G29">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H29">
+        <v>11.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.275</v>
+      </c>
+      <c r="K29">
+        <v>0.112</v>
+      </c>
+      <c r="L29">
+        <v>0.163</v>
+      </c>
+      <c r="M29">
+        <v>0.5597247150000001</v>
+      </c>
+      <c r="N29">
+        <v>-0.3967247150000001</v>
+      </c>
+      <c r="O29">
+        <v>-0.09918117875000002</v>
+      </c>
+      <c r="P29">
+        <v>-0.2975435362500001</v>
+      </c>
+      <c r="Q29">
+        <v>-0.1855435362500001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1269577817563886</v>
+      </c>
+      <c r="T29">
+        <v>1.17075453803126</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.07280364598515182</v>
+      </c>
+      <c r="W29">
+        <v>0.1703259702325276</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.2912145839406073</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1404111926449461</v>
+      </c>
+      <c r="C30">
+        <v>4.706889096299758</v>
+      </c>
+      <c r="D30">
+        <v>6.934689096299757</v>
+      </c>
+      <c r="E30">
+        <v>3.0748</v>
+      </c>
+      <c r="F30">
+        <v>3.1598</v>
+      </c>
+      <c r="G30">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H30">
+        <v>11.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.275</v>
+      </c>
+      <c r="K30">
+        <v>0.112</v>
+      </c>
+      <c r="L30">
+        <v>0.163</v>
+      </c>
+      <c r="M30">
+        <v>0.58045526</v>
+      </c>
+      <c r="N30">
+        <v>-0.41745526</v>
+      </c>
+      <c r="O30">
+        <v>-0.104363815</v>
+      </c>
+      <c r="P30">
+        <v>-0.313091445</v>
+      </c>
+      <c r="Q30">
+        <v>-0.201091445</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1285919176141162</v>
+      </c>
+      <c r="T30">
+        <v>1.187015017726139</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.0702035157713964</v>
+      </c>
+      <c r="W30">
+        <v>0.1708036141527945</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.2808140630855857</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1421551926449461</v>
+      </c>
+      <c r="C31">
+        <v>4.503006916501804</v>
+      </c>
+      <c r="D31">
+        <v>6.843656916501804</v>
+      </c>
+      <c r="E31">
+        <v>3.18765</v>
+      </c>
+      <c r="F31">
+        <v>3.27265</v>
+      </c>
+      <c r="G31">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H31">
+        <v>11.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.275</v>
+      </c>
+      <c r="K31">
+        <v>0.112</v>
+      </c>
+      <c r="L31">
+        <v>0.163</v>
+      </c>
+      <c r="M31">
+        <v>0.601185805</v>
+      </c>
+      <c r="N31">
+        <v>-0.4381858049999999</v>
+      </c>
+      <c r="O31">
+        <v>-0.10954645125</v>
+      </c>
+      <c r="P31">
+        <v>-0.32863935375</v>
+      </c>
+      <c r="Q31">
+        <v>-0.21663935375</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1302720854678361</v>
+      </c>
+      <c r="T31">
+        <v>1.203733539102563</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.06778270488272757</v>
+      </c>
+      <c r="W31">
+        <v>0.1712483171130429</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.2711308195309103</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1438991926449461</v>
+      </c>
+      <c r="C32">
+        <v>4.301483742258753</v>
+      </c>
+      <c r="D32">
+        <v>6.754983742258752</v>
+      </c>
+      <c r="E32">
+        <v>3.3005</v>
+      </c>
+      <c r="F32">
+        <v>3.3855</v>
+      </c>
+      <c r="G32">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H32">
+        <v>11.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.275</v>
+      </c>
+      <c r="K32">
+        <v>0.112</v>
+      </c>
+      <c r="L32">
+        <v>0.163</v>
+      </c>
+      <c r="M32">
+        <v>0.62191635</v>
+      </c>
+      <c r="N32">
+        <v>-0.45891635</v>
+      </c>
+      <c r="O32">
+        <v>-0.1147290875</v>
+      </c>
+      <c r="P32">
+        <v>-0.3441872625</v>
+      </c>
+      <c r="Q32">
+        <v>-0.2321872625</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1320002581173766</v>
+      </c>
+      <c r="T32">
+        <v>1.220929732518314</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.06552328138663664</v>
+      </c>
+      <c r="W32">
+        <v>0.1716633732092749</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.2620931255465466</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1456431926449461</v>
+      </c>
+      <c r="C33">
+        <v>4.102229049674081</v>
+      </c>
+      <c r="D33">
+        <v>6.668579049674081</v>
+      </c>
+      <c r="E33">
+        <v>3.41335</v>
+      </c>
+      <c r="F33">
+        <v>3.49835</v>
+      </c>
+      <c r="G33">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H33">
+        <v>11.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.275</v>
+      </c>
+      <c r="K33">
+        <v>0.112</v>
+      </c>
+      <c r="L33">
+        <v>0.163</v>
+      </c>
+      <c r="M33">
+        <v>0.6426468949999999</v>
+      </c>
+      <c r="N33">
+        <v>-0.4796468949999999</v>
+      </c>
+      <c r="O33">
+        <v>-0.11991172375</v>
+      </c>
+      <c r="P33">
+        <v>-0.3597351712499999</v>
+      </c>
+      <c r="Q33">
+        <v>-0.2477351712499999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1337785227277734</v>
+      </c>
+      <c r="T33">
+        <v>1.238624366322927</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.06340962714835804</v>
+      </c>
+      <c r="W33">
+        <v>0.1720516514928466</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.2536385085934323</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1473871926449461</v>
+      </c>
+      <c r="C34">
+        <v>3.905156888010363</v>
+      </c>
+      <c r="D34">
+        <v>6.584356888010363</v>
+      </c>
+      <c r="E34">
+        <v>3.5262</v>
+      </c>
+      <c r="F34">
+        <v>3.6112</v>
+      </c>
+      <c r="G34">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H34">
+        <v>11.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.275</v>
+      </c>
+      <c r="K34">
+        <v>0.112</v>
+      </c>
+      <c r="L34">
+        <v>0.163</v>
+      </c>
+      <c r="M34">
+        <v>0.6633774400000001</v>
+      </c>
+      <c r="N34">
+        <v>-0.5003774400000001</v>
+      </c>
+      <c r="O34">
+        <v>-0.12509436</v>
+      </c>
+      <c r="P34">
+        <v>-0.37528308</v>
+      </c>
+      <c r="Q34">
+        <v>-0.26328308</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.135609089238476</v>
+      </c>
+      <c r="T34">
+        <v>1.256839430533559</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.06142807629997184</v>
+      </c>
+      <c r="W34">
+        <v>0.1724156623836952</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.2457123051998874</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1491311926449461</v>
+      </c>
+      <c r="C35">
+        <v>3.710185594502931</v>
+      </c>
+      <c r="D35">
+        <v>6.50223559450293</v>
+      </c>
+      <c r="E35">
+        <v>3.63905</v>
+      </c>
+      <c r="F35">
+        <v>3.72405</v>
+      </c>
+      <c r="G35">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H35">
+        <v>11.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.275</v>
+      </c>
+      <c r="K35">
+        <v>0.112</v>
+      </c>
+      <c r="L35">
+        <v>0.163</v>
+      </c>
+      <c r="M35">
+        <v>0.684107985</v>
+      </c>
+      <c r="N35">
+        <v>-0.521107985</v>
+      </c>
+      <c r="O35">
+        <v>-0.13027699625</v>
+      </c>
+      <c r="P35">
+        <v>-0.39083098875</v>
+      </c>
+      <c r="Q35">
+        <v>-0.27883098875</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1374942995256174</v>
+      </c>
+      <c r="T35">
+        <v>1.275598228004209</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.05956661944239695</v>
+      </c>
+      <c r="W35">
+        <v>0.1727576120084317</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.2382664777695879</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1508751926449461</v>
+      </c>
+      <c r="C36">
+        <v>3.517237530251996</v>
+      </c>
+      <c r="D36">
+        <v>6.422137530251996</v>
+      </c>
+      <c r="E36">
+        <v>3.7519</v>
+      </c>
+      <c r="F36">
+        <v>3.8369</v>
+      </c>
+      <c r="G36">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H36">
+        <v>11.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.275</v>
+      </c>
+      <c r="K36">
+        <v>0.112</v>
+      </c>
+      <c r="L36">
+        <v>0.163</v>
+      </c>
+      <c r="M36">
+        <v>0.7048385300000001</v>
+      </c>
+      <c r="N36">
+        <v>-0.54183853</v>
+      </c>
+      <c r="O36">
+        <v>-0.1354596325</v>
+      </c>
+      <c r="P36">
+        <v>-0.4063788975</v>
+      </c>
+      <c r="Q36">
+        <v>-0.2943788975</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1394366373972177</v>
+      </c>
+      <c r="T36">
+        <v>1.294925473883061</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.05781466004703233</v>
+      </c>
+      <c r="W36">
+        <v>0.1730794469493602</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.2312586401881294</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1526191926449461</v>
+      </c>
+      <c r="C37">
+        <v>3.326238835397801</v>
+      </c>
+      <c r="D37">
+        <v>6.343988835397801</v>
+      </c>
+      <c r="E37">
+        <v>3.86475</v>
+      </c>
+      <c r="F37">
+        <v>3.94975</v>
+      </c>
+      <c r="G37">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H37">
+        <v>11.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.275</v>
+      </c>
+      <c r="K37">
+        <v>0.112</v>
+      </c>
+      <c r="L37">
+        <v>0.163</v>
+      </c>
+      <c r="M37">
+        <v>0.7255690750000001</v>
+      </c>
+      <c r="N37">
+        <v>-0.5625690750000001</v>
+      </c>
+      <c r="O37">
+        <v>-0.14064226875</v>
+      </c>
+      <c r="P37">
+        <v>-0.4219268062500001</v>
+      </c>
+      <c r="Q37">
+        <v>-0.30992680625</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.141438739511021</v>
+      </c>
+      <c r="T37">
+        <v>1.314847404250493</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.05616281261711711</v>
+      </c>
+      <c r="W37">
+        <v>0.1733828913222356</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.2246512504684685</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1543631926449461</v>
+      </c>
+      <c r="C38">
+        <v>3.137119201955958</v>
+      </c>
+      <c r="D38">
+        <v>6.267719201955957</v>
+      </c>
+      <c r="E38">
+        <v>3.9776</v>
+      </c>
+      <c r="F38">
+        <v>4.0626</v>
+      </c>
+      <c r="G38">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H38">
+        <v>11.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.275</v>
+      </c>
+      <c r="K38">
+        <v>0.112</v>
+      </c>
+      <c r="L38">
+        <v>0.163</v>
+      </c>
+      <c r="M38">
+        <v>0.7462996199999999</v>
+      </c>
+      <c r="N38">
+        <v>-0.5832996199999999</v>
+      </c>
+      <c r="O38">
+        <v>-0.145824905</v>
+      </c>
+      <c r="P38">
+        <v>-0.4374747149999999</v>
+      </c>
+      <c r="Q38">
+        <v>-0.3254747149999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1435034073158807</v>
+      </c>
+      <c r="T38">
+        <v>1.335391894941906</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.05460273448886387</v>
+      </c>
+      <c r="W38">
+        <v>0.1736694776743957</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.2184109379554555</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1561071926449461</v>
+      </c>
+      <c r="C39">
+        <v>2.949811662844453</v>
+      </c>
+      <c r="D39">
+        <v>6.193261662844452</v>
+      </c>
+      <c r="E39">
+        <v>4.09045</v>
+      </c>
+      <c r="F39">
+        <v>4.17545</v>
+      </c>
+      <c r="G39">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H39">
+        <v>11.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.275</v>
+      </c>
+      <c r="K39">
+        <v>0.112</v>
+      </c>
+      <c r="L39">
+        <v>0.163</v>
+      </c>
+      <c r="M39">
+        <v>0.767030165</v>
+      </c>
+      <c r="N39">
+        <v>-0.604030165</v>
+      </c>
+      <c r="O39">
+        <v>-0.15100754125</v>
+      </c>
+      <c r="P39">
+        <v>-0.45302262375</v>
+      </c>
+      <c r="Q39">
+        <v>-0.3410226237499999</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1456336201304185</v>
+      </c>
+      <c r="T39">
+        <v>1.356588591687016</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.05312698490808377</v>
+      </c>
+      <c r="W39">
+        <v>0.173940572872385</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.2125079396323351</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1578511926449461</v>
+      </c>
+      <c r="C40">
+        <v>2.764252395771676</v>
+      </c>
+      <c r="D40">
+        <v>6.120552395771676</v>
+      </c>
+      <c r="E40">
+        <v>4.2033</v>
+      </c>
+      <c r="F40">
+        <v>4.2883</v>
+      </c>
+      <c r="G40">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H40">
+        <v>11.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.275</v>
+      </c>
+      <c r="K40">
+        <v>0.112</v>
+      </c>
+      <c r="L40">
+        <v>0.163</v>
+      </c>
+      <c r="M40">
+        <v>0.7877607100000001</v>
+      </c>
+      <c r="N40">
+        <v>-0.6247607100000001</v>
+      </c>
+      <c r="O40">
+        <v>-0.1561901775</v>
+      </c>
+      <c r="P40">
+        <v>-0.4685705325000001</v>
+      </c>
+      <c r="Q40">
+        <v>-0.3565705325</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1478325494873607</v>
+      </c>
+      <c r="T40">
+        <v>1.378469052843258</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.05172890635787103</v>
+      </c>
+      <c r="W40">
+        <v>0.1741973999020591</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.2069156254314841</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1595951926449461</v>
+      </c>
+      <c r="C41">
+        <v>2.580380540778336</v>
+      </c>
+      <c r="D41">
+        <v>6.049530540778336</v>
+      </c>
+      <c r="E41">
+        <v>4.31615</v>
+      </c>
+      <c r="F41">
+        <v>4.40115</v>
+      </c>
+      <c r="G41">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H41">
+        <v>11.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.275</v>
+      </c>
+      <c r="K41">
+        <v>0.112</v>
+      </c>
+      <c r="L41">
+        <v>0.163</v>
+      </c>
+      <c r="M41">
+        <v>0.8084912550000001</v>
+      </c>
+      <c r="N41">
+        <v>-0.645491255</v>
+      </c>
+      <c r="O41">
+        <v>-0.16137281375</v>
+      </c>
+      <c r="P41">
+        <v>-0.48411844125</v>
+      </c>
+      <c r="Q41">
+        <v>-0.37211844125</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1501035748887929</v>
+      </c>
+      <c r="T41">
+        <v>1.401066906168557</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.05040252414356665</v>
+      </c>
+      <c r="W41">
+        <v>0.1744410563148268</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2016100965742667</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1613391926449461</v>
+      </c>
+      <c r="C42">
+        <v>2.398138030336929</v>
+      </c>
+      <c r="D42">
+        <v>5.980138030336929</v>
+      </c>
+      <c r="E42">
+        <v>4.429</v>
+      </c>
+      <c r="F42">
+        <v>4.514</v>
+      </c>
+      <c r="G42">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H42">
+        <v>11.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.275</v>
+      </c>
+      <c r="K42">
+        <v>0.112</v>
+      </c>
+      <c r="L42">
+        <v>0.163</v>
+      </c>
+      <c r="M42">
+        <v>0.8292218</v>
+      </c>
+      <c r="N42">
+        <v>-0.6662218</v>
+      </c>
+      <c r="O42">
+        <v>-0.16655545</v>
+      </c>
+      <c r="P42">
+        <v>-0.49966635</v>
+      </c>
+      <c r="Q42">
+        <v>-0.3876663499999999</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1524503011369394</v>
+      </c>
+      <c r="T42">
+        <v>1.424418021271367</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.04914246103997748</v>
+      </c>
+      <c r="W42">
+        <v>0.1746725299069561</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.19656984415991</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1630831926449461</v>
+      </c>
+      <c r="C43">
+        <v>2.217469431011924</v>
+      </c>
+      <c r="D43">
+        <v>5.912319431011924</v>
+      </c>
+      <c r="E43">
+        <v>4.54185</v>
+      </c>
+      <c r="F43">
+        <v>4.62685</v>
+      </c>
+      <c r="G43">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H43">
+        <v>11.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.275</v>
+      </c>
+      <c r="K43">
+        <v>0.112</v>
+      </c>
+      <c r="L43">
+        <v>0.163</v>
+      </c>
+      <c r="M43">
+        <v>0.8499523450000001</v>
+      </c>
+      <c r="N43">
+        <v>-0.686952345</v>
+      </c>
+      <c r="O43">
+        <v>-0.17173808625</v>
+      </c>
+      <c r="P43">
+        <v>-0.51521425875</v>
+      </c>
+      <c r="Q43">
+        <v>-0.4032142587500001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.154876577427396</v>
+      </c>
+      <c r="T43">
+        <v>1.448560699598</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.04794386442924632</v>
+      </c>
+      <c r="W43">
+        <v>0.1748927121043475</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1917754577169853</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1648271926449461</v>
+      </c>
+      <c r="C44">
+        <v>2.038321795773152</v>
+      </c>
+      <c r="D44">
+        <v>5.846021795773152</v>
+      </c>
+      <c r="E44">
+        <v>4.6547</v>
+      </c>
+      <c r="F44">
+        <v>4.7397</v>
+      </c>
+      <c r="G44">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H44">
+        <v>11.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.275</v>
+      </c>
+      <c r="K44">
+        <v>0.112</v>
+      </c>
+      <c r="L44">
+        <v>0.163</v>
+      </c>
+      <c r="M44">
+        <v>0.87068289</v>
+      </c>
+      <c r="N44">
+        <v>-0.70768289</v>
+      </c>
+      <c r="O44">
+        <v>-0.1769207225</v>
+      </c>
+      <c r="P44">
+        <v>-0.5307621674999999</v>
+      </c>
+      <c r="Q44">
+        <v>-0.4187621674999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1573865184175235</v>
+      </c>
+      <c r="T44">
+        <v>1.473535884073828</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.04680234384759761</v>
+      </c>
+      <c r="W44">
+        <v>0.1751024094351963</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1872093753903904</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1665711926449461</v>
+      </c>
+      <c r="C45">
+        <v>1.860644526135504</v>
+      </c>
+      <c r="D45">
+        <v>5.781194526135503</v>
+      </c>
+      <c r="E45">
+        <v>4.76755</v>
+      </c>
+      <c r="F45">
+        <v>4.85255</v>
+      </c>
+      <c r="G45">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H45">
+        <v>11.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.275</v>
+      </c>
+      <c r="K45">
+        <v>0.112</v>
+      </c>
+      <c r="L45">
+        <v>0.163</v>
+      </c>
+      <c r="M45">
+        <v>0.891413435</v>
+      </c>
+      <c r="N45">
+        <v>-0.728413435</v>
+      </c>
+      <c r="O45">
+        <v>-0.18210335875</v>
+      </c>
+      <c r="P45">
+        <v>-0.5463100762499999</v>
+      </c>
+      <c r="Q45">
+        <v>-0.43431007625</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1599845275125678</v>
+      </c>
+      <c r="T45">
+        <v>1.499387390811965</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.04571391724649068</v>
+      </c>
+      <c r="W45">
+        <v>0.1753023534018197</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.1828556689859627</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1683151926449461</v>
+      </c>
+      <c r="C46">
+        <v>1.684389243370528</v>
+      </c>
+      <c r="D46">
+        <v>5.717789243370527</v>
+      </c>
+      <c r="E46">
+        <v>4.8804</v>
+      </c>
+      <c r="F46">
+        <v>4.9654</v>
+      </c>
+      <c r="G46">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H46">
+        <v>11.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.275</v>
+      </c>
+      <c r="K46">
+        <v>0.112</v>
+      </c>
+      <c r="L46">
+        <v>0.163</v>
+      </c>
+      <c r="M46">
+        <v>0.91214398</v>
+      </c>
+      <c r="N46">
+        <v>-0.7491439799999999</v>
+      </c>
+      <c r="O46">
+        <v>-0.187285995</v>
+      </c>
+      <c r="P46">
+        <v>-0.5618579849999999</v>
+      </c>
+      <c r="Q46">
+        <v>-0.449857985</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1626753226467208</v>
+      </c>
+      <c r="T46">
+        <v>1.526162165647893</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.04467496458179771</v>
+      </c>
+      <c r="W46">
+        <v>0.1754932090063238</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1786998583271909</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1700591926449461</v>
+      </c>
+      <c r="C47">
+        <v>1.509509668100997</v>
+      </c>
+      <c r="D47">
+        <v>5.655759668100997</v>
+      </c>
+      <c r="E47">
+        <v>4.993250000000001</v>
+      </c>
+      <c r="F47">
+        <v>5.078250000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H47">
+        <v>11.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.275</v>
+      </c>
+      <c r="K47">
+        <v>0.112</v>
+      </c>
+      <c r="L47">
+        <v>0.163</v>
+      </c>
+      <c r="M47">
+        <v>0.9328745250000001</v>
+      </c>
+      <c r="N47">
+        <v>-0.7698745250000001</v>
+      </c>
+      <c r="O47">
+        <v>-0.19246863125</v>
+      </c>
+      <c r="P47">
+        <v>-0.5774058937500001</v>
+      </c>
+      <c r="Q47">
+        <v>-0.4654058937500001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1654639648766612</v>
+      </c>
+      <c r="T47">
+        <v>1.553910568659673</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.04368218759109109</v>
+      </c>
+      <c r="W47">
+        <v>0.1756755821395166</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1747287503643644</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1718031926449461</v>
+      </c>
+      <c r="C48">
+        <v>1.335961507648732</v>
+      </c>
+      <c r="D48">
+        <v>5.595061507648732</v>
+      </c>
+      <c r="E48">
+        <v>5.106100000000001</v>
+      </c>
+      <c r="F48">
+        <v>5.1911</v>
+      </c>
+      <c r="G48">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H48">
+        <v>11.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.275</v>
+      </c>
+      <c r="K48">
+        <v>0.112</v>
+      </c>
+      <c r="L48">
+        <v>0.163</v>
+      </c>
+      <c r="M48">
+        <v>0.9536050700000001</v>
+      </c>
+      <c r="N48">
+        <v>-0.79060507</v>
+      </c>
+      <c r="O48">
+        <v>-0.1976512675</v>
+      </c>
+      <c r="P48">
+        <v>-0.5929538025000001</v>
+      </c>
+      <c r="Q48">
+        <v>-0.4809538025000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1683558901521549</v>
+      </c>
+      <c r="T48">
+        <v>1.582686690301519</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.04273257481737172</v>
+      </c>
+      <c r="W48">
+        <v>0.1758500260060488</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1709302992694869</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1735471926449461</v>
+      </c>
+      <c r="C49">
+        <v>1.163702350559316</v>
+      </c>
+      <c r="D49">
+        <v>5.535652350559316</v>
+      </c>
+      <c r="E49">
+        <v>5.21895</v>
+      </c>
+      <c r="F49">
+        <v>5.30395</v>
+      </c>
+      <c r="G49">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H49">
+        <v>11.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.275</v>
+      </c>
+      <c r="K49">
+        <v>0.112</v>
+      </c>
+      <c r="L49">
+        <v>0.163</v>
+      </c>
+      <c r="M49">
+        <v>0.9743356150000001</v>
+      </c>
+      <c r="N49">
+        <v>-0.8113356150000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.20283390375</v>
+      </c>
+      <c r="P49">
+        <v>-0.6085017112500001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.4965017112500001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1713569446833277</v>
+      </c>
+      <c r="T49">
+        <v>1.612548703326075</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.04182337109785318</v>
+      </c>
+      <c r="W49">
+        <v>0.1760170467293244</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.1672934843914127</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1752911926449461</v>
+      </c>
+      <c r="C50">
+        <v>0.992691567775946</v>
+      </c>
+      <c r="D50">
+        <v>5.477491567775946</v>
+      </c>
+      <c r="E50">
+        <v>5.3318</v>
+      </c>
+      <c r="F50">
+        <v>5.4168</v>
+      </c>
+      <c r="G50">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H50">
+        <v>11.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.275</v>
+      </c>
+      <c r="K50">
+        <v>0.112</v>
+      </c>
+      <c r="L50">
+        <v>0.163</v>
+      </c>
+      <c r="M50">
+        <v>0.99506616</v>
+      </c>
+      <c r="N50">
+        <v>-0.83206616</v>
+      </c>
+      <c r="O50">
+        <v>-0.20801654</v>
+      </c>
+      <c r="P50">
+        <v>-0.62404962</v>
+      </c>
+      <c r="Q50">
+        <v>-0.51204962</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1744734243887762</v>
+      </c>
+      <c r="T50">
+        <v>1.643559255313115</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.0409520508666479</v>
+      </c>
+      <c r="W50">
+        <v>0.1761771082557968</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1638082034665916</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1770351926449461</v>
+      </c>
+      <c r="C51">
+        <v>0.822890219978456</v>
+      </c>
+      <c r="D51">
+        <v>5.420540219978456</v>
+      </c>
+      <c r="E51">
+        <v>5.44465</v>
+      </c>
+      <c r="F51">
+        <v>5.52965</v>
+      </c>
+      <c r="G51">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H51">
+        <v>11.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.275</v>
+      </c>
+      <c r="K51">
+        <v>0.112</v>
+      </c>
+      <c r="L51">
+        <v>0.163</v>
+      </c>
+      <c r="M51">
+        <v>1.015796705</v>
+      </c>
+      <c r="N51">
+        <v>-0.852796705</v>
+      </c>
+      <c r="O51">
+        <v>-0.21319917625</v>
+      </c>
+      <c r="P51">
+        <v>-0.63959752875</v>
+      </c>
+      <c r="Q51">
+        <v>-0.52759752875</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1777121189846346</v>
+      </c>
+      <c r="T51">
+        <v>1.675785907378078</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.04011629472651223</v>
+      </c>
+      <c r="W51">
+        <v>0.1763306366587397</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1604651789060489</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1787791926449461</v>
+      </c>
+      <c r="C52">
+        <v>0.6542609706434233</v>
+      </c>
+      <c r="D52">
+        <v>5.364760970643423</v>
+      </c>
+      <c r="E52">
+        <v>5.5575</v>
+      </c>
+      <c r="F52">
+        <v>5.6425</v>
+      </c>
+      <c r="G52">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H52">
+        <v>11.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.275</v>
+      </c>
+      <c r="K52">
+        <v>0.112</v>
+      </c>
+      <c r="L52">
+        <v>0.163</v>
+      </c>
+      <c r="M52">
+        <v>1.03652725</v>
+      </c>
+      <c r="N52">
+        <v>-0.87352725</v>
+      </c>
+      <c r="O52">
+        <v>-0.2183818125</v>
+      </c>
+      <c r="P52">
+        <v>-0.6551454375</v>
+      </c>
+      <c r="Q52">
+        <v>-0.5431454375</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1810803613643273</v>
+      </c>
+      <c r="T52">
+        <v>1.70930162552564</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.03931396883198199</v>
+      </c>
+      <c r="W52">
+        <v>0.1764780239255649</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.157255875327928</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1805231926449461</v>
+      </c>
+      <c r="C53">
+        <v>0.4867680044174456</v>
+      </c>
+      <c r="D53">
+        <v>5.310118004417445</v>
+      </c>
+      <c r="E53">
+        <v>5.67035</v>
+      </c>
+      <c r="F53">
+        <v>5.75535</v>
+      </c>
+      <c r="G53">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H53">
+        <v>11.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.275</v>
+      </c>
+      <c r="K53">
+        <v>0.112</v>
+      </c>
+      <c r="L53">
+        <v>0.163</v>
+      </c>
+      <c r="M53">
+        <v>1.057257795</v>
+      </c>
+      <c r="N53">
+        <v>-0.8942577949999999</v>
+      </c>
+      <c r="O53">
+        <v>-0.22356444875</v>
+      </c>
+      <c r="P53">
+        <v>-0.67069334625</v>
+      </c>
+      <c r="Q53">
+        <v>-0.55869334625</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1845860830248238</v>
+      </c>
+      <c r="T53">
+        <v>1.74418533216902</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.03854310669802156</v>
+      </c>
+      <c r="W53">
+        <v>0.1766196312995734</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1541724267920863</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1822671926449461</v>
+      </c>
+      <c r="C54">
+        <v>0.3203769504285887</v>
+      </c>
+      <c r="D54">
+        <v>5.256576950428588</v>
+      </c>
+      <c r="E54">
+        <v>5.7832</v>
+      </c>
+      <c r="F54">
+        <v>5.8682</v>
+      </c>
+      <c r="G54">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H54">
+        <v>11.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.275</v>
+      </c>
+      <c r="K54">
+        <v>0.112</v>
+      </c>
+      <c r="L54">
+        <v>0.163</v>
+      </c>
+      <c r="M54">
+        <v>1.07798834</v>
+      </c>
+      <c r="N54">
+        <v>-0.9149883399999998</v>
+      </c>
+      <c r="O54">
+        <v>-0.228747085</v>
+      </c>
+      <c r="P54">
+        <v>-0.6862412549999999</v>
+      </c>
+      <c r="Q54">
+        <v>-0.5742412549999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1882378764211743</v>
+      </c>
+      <c r="T54">
+        <v>1.780522526589208</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03780189310767499</v>
+      </c>
+      <c r="W54">
+        <v>0.1767557922361201</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1512075724307</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1840111926449461</v>
+      </c>
+      <c r="C55">
+        <v>0.1550548101909666</v>
+      </c>
+      <c r="D55">
+        <v>5.204104810190967</v>
+      </c>
+      <c r="E55">
+        <v>5.896050000000001</v>
+      </c>
+      <c r="F55">
+        <v>5.981050000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H55">
+        <v>11.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.275</v>
+      </c>
+      <c r="K55">
+        <v>0.112</v>
+      </c>
+      <c r="L55">
+        <v>0.163</v>
+      </c>
+      <c r="M55">
+        <v>1.098718885</v>
+      </c>
+      <c r="N55">
+        <v>-0.935718885</v>
+      </c>
+      <c r="O55">
+        <v>-0.23392972125</v>
+      </c>
+      <c r="P55">
+        <v>-0.70178916375</v>
+      </c>
+      <c r="Q55">
+        <v>-0.58978916375</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1920450652811993</v>
+      </c>
+      <c r="T55">
+        <v>1.818405984601745</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.03708864984149244</v>
+      </c>
+      <c r="W55">
+        <v>0.1768868150241178</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1483545993659697</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1857551926449461</v>
+      </c>
+      <c r="C56">
+        <v>-0.009230110215344034</v>
+      </c>
+      <c r="D56">
+        <v>5.152669889784656</v>
+      </c>
+      <c r="E56">
+        <v>6.008900000000001</v>
+      </c>
+      <c r="F56">
+        <v>6.093900000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H56">
+        <v>11.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.275</v>
+      </c>
+      <c r="K56">
+        <v>0.112</v>
+      </c>
+      <c r="L56">
+        <v>0.163</v>
+      </c>
+      <c r="M56">
+        <v>1.11944943</v>
+      </c>
+      <c r="N56">
+        <v>-0.9564494300000002</v>
+      </c>
+      <c r="O56">
+        <v>-0.2391123575</v>
+      </c>
+      <c r="P56">
+        <v>-0.7173370725000001</v>
+      </c>
+      <c r="Q56">
+        <v>-0.6053370725000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1960177840916601</v>
+      </c>
+      <c r="T56">
+        <v>1.857936549484391</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03640182299257591</v>
+      </c>
+      <c r="W56">
+        <v>0.1770129851162638</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1456072919703036</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1874991926449461</v>
+      </c>
+      <c r="C57">
+        <v>-0.1725082639819497</v>
+      </c>
+      <c r="D57">
+        <v>5.10224173601805</v>
+      </c>
+      <c r="E57">
+        <v>6.12175</v>
+      </c>
+      <c r="F57">
+        <v>6.20675</v>
+      </c>
+      <c r="G57">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H57">
+        <v>11.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.275</v>
+      </c>
+      <c r="K57">
+        <v>0.112</v>
+      </c>
+      <c r="L57">
+        <v>0.163</v>
+      </c>
+      <c r="M57">
+        <v>1.140179975</v>
+      </c>
+      <c r="N57">
+        <v>-0.9771799750000001</v>
+      </c>
+      <c r="O57">
+        <v>-0.24429499375</v>
+      </c>
+      <c r="P57">
+        <v>-0.73288498125</v>
+      </c>
+      <c r="Q57">
+        <v>-0.62088498125</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2001670681825859</v>
+      </c>
+      <c r="T57">
+        <v>1.899224028361823</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03573997166543817</v>
+      </c>
+      <c r="W57">
+        <v>0.177134567205059</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.1429598866617527</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1892431926449461</v>
+      </c>
+      <c r="C58">
+        <v>-0.3348089236975031</v>
+      </c>
+      <c r="D58">
+        <v>5.052791076302497</v>
+      </c>
+      <c r="E58">
+        <v>6.2346</v>
+      </c>
+      <c r="F58">
+        <v>6.3196</v>
+      </c>
+      <c r="G58">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H58">
+        <v>11.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.275</v>
+      </c>
+      <c r="K58">
+        <v>0.112</v>
+      </c>
+      <c r="L58">
+        <v>0.163</v>
+      </c>
+      <c r="M58">
+        <v>1.16091052</v>
+      </c>
+      <c r="N58">
+        <v>-0.99791052</v>
+      </c>
+      <c r="O58">
+        <v>-0.24947763</v>
+      </c>
+      <c r="P58">
+        <v>-0.74843289</v>
+      </c>
+      <c r="Q58">
+        <v>-0.63643289</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2045049560958265</v>
+      </c>
+      <c r="T58">
+        <v>1.942388210824591</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.0351017578856982</v>
+      </c>
+      <c r="W58">
+        <v>0.1772518070763972</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1404070315427929</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1909871926449461</v>
+      </c>
+      <c r="C59">
+        <v>-0.4961602380102423</v>
+      </c>
+      <c r="D59">
+        <v>5.004289761989758</v>
+      </c>
+      <c r="E59">
+        <v>6.347450000000001</v>
+      </c>
+      <c r="F59">
+        <v>6.432450000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H59">
+        <v>11.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.275</v>
+      </c>
+      <c r="K59">
+        <v>0.112</v>
+      </c>
+      <c r="L59">
+        <v>0.163</v>
+      </c>
+      <c r="M59">
+        <v>1.181641065</v>
+      </c>
+      <c r="N59">
+        <v>-1.018641065</v>
+      </c>
+      <c r="O59">
+        <v>-0.25466026625</v>
+      </c>
+      <c r="P59">
+        <v>-0.7639807987500001</v>
+      </c>
+      <c r="Q59">
+        <v>-0.6519807987500001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2090446062375899</v>
+      </c>
+      <c r="T59">
+        <v>1.987560029680977</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.03448593757191402</v>
+      </c>
+      <c r="W59">
+        <v>0.1773649332680394</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.137943750287656</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1927311926449461</v>
+      </c>
+      <c r="C60">
+        <v>-0.6565892850581614</v>
+      </c>
+      <c r="D60">
+        <v>4.956710714941837</v>
+      </c>
+      <c r="E60">
+        <v>6.460299999999999</v>
+      </c>
+      <c r="F60">
+        <v>6.545299999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H60">
+        <v>11.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.275</v>
+      </c>
+      <c r="K60">
+        <v>0.112</v>
+      </c>
+      <c r="L60">
+        <v>0.163</v>
+      </c>
+      <c r="M60">
+        <v>1.20237161</v>
+      </c>
+      <c r="N60">
+        <v>-1.03937161</v>
+      </c>
+      <c r="O60">
+        <v>-0.2598429025</v>
+      </c>
+      <c r="P60">
+        <v>-0.7795287074999999</v>
+      </c>
+      <c r="Q60">
+        <v>-0.6675287074999999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2138004301956277</v>
+      </c>
+      <c r="T60">
+        <v>2.034882887530524</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.03389135244136379</v>
+      </c>
+      <c r="W60">
+        <v>0.1774741585565215</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1355654097654552</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1944751926449461</v>
+      </c>
+      <c r="C61">
+        <v>-0.8161221228799285</v>
+      </c>
+      <c r="D61">
+        <v>4.910027877120071</v>
+      </c>
+      <c r="E61">
+        <v>6.57315</v>
+      </c>
+      <c r="F61">
+        <v>6.65815</v>
+      </c>
+      <c r="G61">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H61">
+        <v>11.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.275</v>
+      </c>
+      <c r="K61">
+        <v>0.112</v>
+      </c>
+      <c r="L61">
+        <v>0.163</v>
+      </c>
+      <c r="M61">
+        <v>1.223102155</v>
+      </c>
+      <c r="N61">
+        <v>-1.060102155</v>
+      </c>
+      <c r="O61">
+        <v>-0.26502553875</v>
+      </c>
+      <c r="P61">
+        <v>-0.79507661625</v>
+      </c>
+      <c r="Q61">
+        <v>-0.68307661625</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2187882455662528</v>
+      </c>
+      <c r="T61">
+        <v>2.084514177470292</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.03331692273896778</v>
+      </c>
+      <c r="W61">
+        <v>0.1775796812928516</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1332676909558712</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1962191926449461</v>
+      </c>
+      <c r="C62">
+        <v>-0.974783837003705</v>
+      </c>
+      <c r="D62">
+        <v>4.864216162996295</v>
+      </c>
+      <c r="E62">
+        <v>6.686</v>
+      </c>
+      <c r="F62">
+        <v>6.771</v>
+      </c>
+      <c r="G62">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H62">
+        <v>11.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.275</v>
+      </c>
+      <c r="K62">
+        <v>0.112</v>
+      </c>
+      <c r="L62">
+        <v>0.163</v>
+      </c>
+      <c r="M62">
+        <v>1.2438327</v>
+      </c>
+      <c r="N62">
+        <v>-1.0808327</v>
+      </c>
+      <c r="O62">
+        <v>-0.270208175</v>
+      </c>
+      <c r="P62">
+        <v>-0.8106245249999999</v>
+      </c>
+      <c r="Q62">
+        <v>-0.6986245249999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2240254517054091</v>
+      </c>
+      <c r="T62">
+        <v>2.13662703190705</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.03276164069331832</v>
+      </c>
+      <c r="W62">
+        <v>0.1776816866046374</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1310465627732733</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1979631926449461</v>
+      </c>
+      <c r="C63">
+        <v>-1.132598585396523</v>
+      </c>
+      <c r="D63">
+        <v>4.819251414603476</v>
+      </c>
+      <c r="E63">
+        <v>6.79885</v>
+      </c>
+      <c r="F63">
+        <v>6.88385</v>
+      </c>
+      <c r="G63">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H63">
+        <v>11.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.275</v>
+      </c>
+      <c r="K63">
+        <v>0.112</v>
+      </c>
+      <c r="L63">
+        <v>0.163</v>
+      </c>
+      <c r="M63">
+        <v>1.264563245</v>
+      </c>
+      <c r="N63">
+        <v>-1.101563245</v>
+      </c>
+      <c r="O63">
+        <v>-0.27539081125</v>
+      </c>
+      <c r="P63">
+        <v>-0.8261724337499999</v>
+      </c>
+      <c r="Q63">
+        <v>-0.7141724337499999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2295312325183683</v>
+      </c>
+      <c r="T63">
+        <v>2.191412340417487</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.03222456461637868</v>
+      </c>
+      <c r="W63">
+        <v>0.1777803474799712</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1288982584655147</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1997071926449461</v>
+      </c>
+      <c r="C64">
+        <v>-1.289589640943415</v>
+      </c>
+      <c r="D64">
+        <v>4.775110359056584</v>
+      </c>
+      <c r="E64">
+        <v>6.9117</v>
+      </c>
+      <c r="F64">
+        <v>6.9967</v>
+      </c>
+      <c r="G64">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H64">
+        <v>11.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.275</v>
+      </c>
+      <c r="K64">
+        <v>0.112</v>
+      </c>
+      <c r="L64">
+        <v>0.163</v>
+      </c>
+      <c r="M64">
+        <v>1.28529379</v>
+      </c>
+      <c r="N64">
+        <v>-1.12229379</v>
+      </c>
+      <c r="O64">
+        <v>-0.2805734475</v>
+      </c>
+      <c r="P64">
+        <v>-0.8417203424999999</v>
+      </c>
+      <c r="Q64">
+        <v>-0.7297203425</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2353267912688517</v>
+      </c>
+      <c r="T64">
+        <v>2.249081086217947</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.03170481357417902</v>
+      </c>
+      <c r="W64">
+        <v>0.1778758257464233</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1268192542967161</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2014511926449461</v>
+      </c>
+      <c r="C65">
+        <v>-1.445779431613269</v>
+      </c>
+      <c r="D65">
+        <v>4.731770568386731</v>
+      </c>
+      <c r="E65">
+        <v>7.024550000000001</v>
+      </c>
+      <c r="F65">
+        <v>7.10955</v>
+      </c>
+      <c r="G65">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H65">
+        <v>11.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.275</v>
+      </c>
+      <c r="K65">
+        <v>0.112</v>
+      </c>
+      <c r="L65">
+        <v>0.163</v>
+      </c>
+      <c r="M65">
+        <v>1.306024335</v>
+      </c>
+      <c r="N65">
+        <v>-1.143024335</v>
+      </c>
+      <c r="O65">
+        <v>-0.28575608375</v>
+      </c>
+      <c r="P65">
+        <v>-0.8572682512500001</v>
+      </c>
+      <c r="Q65">
+        <v>-0.7452682512500001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2414356234653072</v>
+      </c>
+      <c r="T65">
+        <v>2.309867061521135</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.03120156256506507</v>
+      </c>
+      <c r="W65">
+        <v>0.1779682729567975</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1248062502602603</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2031951926449461</v>
+      </c>
+      <c r="C66">
+        <v>-1.601189578457022</v>
+      </c>
+      <c r="D66">
+        <v>4.689210421542978</v>
+      </c>
+      <c r="E66">
+        <v>7.1374</v>
+      </c>
+      <c r="F66">
+        <v>7.2224</v>
+      </c>
+      <c r="G66">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H66">
+        <v>11.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.275</v>
+      </c>
+      <c r="K66">
+        <v>0.112</v>
+      </c>
+      <c r="L66">
+        <v>0.163</v>
+      </c>
+      <c r="M66">
+        <v>1.32675488</v>
+      </c>
+      <c r="N66">
+        <v>-1.16375488</v>
+      </c>
+      <c r="O66">
+        <v>-0.29093872</v>
+      </c>
+      <c r="P66">
+        <v>-0.8728161600000002</v>
+      </c>
+      <c r="Q66">
+        <v>-0.7608161600000002</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2478838352282324</v>
+      </c>
+      <c r="T66">
+        <v>2.374030035452278</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.03071403814998592</v>
+      </c>
+      <c r="W66">
+        <v>0.1780578311918476</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1228561525999438</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2049391926449461</v>
+      </c>
+      <c r="C67">
+        <v>-1.755840931573482</v>
+      </c>
+      <c r="D67">
+        <v>4.647409068426517</v>
+      </c>
+      <c r="E67">
+        <v>7.25025</v>
+      </c>
+      <c r="F67">
+        <v>7.33525</v>
+      </c>
+      <c r="G67">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H67">
+        <v>11.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.275</v>
+      </c>
+      <c r="K67">
+        <v>0.112</v>
+      </c>
+      <c r="L67">
+        <v>0.163</v>
+      </c>
+      <c r="M67">
+        <v>1.347485425</v>
+      </c>
+      <c r="N67">
+        <v>-1.184485425</v>
+      </c>
+      <c r="O67">
+        <v>-0.29612135625</v>
+      </c>
+      <c r="P67">
+        <v>-0.8883640687500001</v>
+      </c>
+      <c r="Q67">
+        <v>-0.7763640687500001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2547005162347533</v>
+      </c>
+      <c r="T67">
+        <v>2.441859465036629</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.03024151448613999</v>
+      </c>
+      <c r="W67">
+        <v>0.1781446337888961</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1209660579445599</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2066831926449461</v>
+      </c>
+      <c r="C68">
+        <v>-1.909753604168486</v>
+      </c>
+      <c r="D68">
+        <v>4.606346395831514</v>
+      </c>
+      <c r="E68">
+        <v>7.3631</v>
+      </c>
+      <c r="F68">
+        <v>7.4481</v>
+      </c>
+      <c r="G68">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H68">
+        <v>11.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.275</v>
+      </c>
+      <c r="K68">
+        <v>0.112</v>
+      </c>
+      <c r="L68">
+        <v>0.163</v>
+      </c>
+      <c r="M68">
+        <v>1.36821597</v>
+      </c>
+      <c r="N68">
+        <v>-1.20521597</v>
+      </c>
+      <c r="O68">
+        <v>-0.3013039925</v>
+      </c>
+      <c r="P68">
+        <v>-0.9039119775</v>
+      </c>
+      <c r="Q68">
+        <v>-0.7919119775</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2619181784769519</v>
+      </c>
+      <c r="T68">
+        <v>2.513678861067118</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02978330972119847</v>
+      </c>
+      <c r="W68">
+        <v>0.1782288060042158</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1191332388847939</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2084271926449461</v>
+      </c>
+      <c r="C69">
+        <v>-2.062947004824238</v>
+      </c>
+      <c r="D69">
+        <v>4.566002995175762</v>
+      </c>
+      <c r="E69">
+        <v>7.475950000000001</v>
+      </c>
+      <c r="F69">
+        <v>7.560950000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H69">
+        <v>11.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.275</v>
+      </c>
+      <c r="K69">
+        <v>0.112</v>
+      </c>
+      <c r="L69">
+        <v>0.163</v>
+      </c>
+      <c r="M69">
+        <v>1.388946515</v>
+      </c>
+      <c r="N69">
+        <v>-1.225946515</v>
+      </c>
+      <c r="O69">
+        <v>-0.30648662875</v>
+      </c>
+      <c r="P69">
+        <v>-0.9194598862500001</v>
+      </c>
+      <c r="Q69">
+        <v>-0.8074598862500001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2695732747944353</v>
+      </c>
+      <c r="T69">
+        <v>2.589850947766122</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02933878271043431</v>
+      </c>
+      <c r="W69">
+        <v>0.1783104656160932</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1173551308417373</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2101711926449461</v>
+      </c>
+      <c r="C70">
+        <v>-2.215439868087673</v>
+      </c>
+      <c r="D70">
+        <v>4.526360131912328</v>
+      </c>
+      <c r="E70">
+        <v>7.588800000000001</v>
+      </c>
+      <c r="F70">
+        <v>7.673800000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H70">
+        <v>11.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.275</v>
+      </c>
+      <c r="K70">
+        <v>0.112</v>
+      </c>
+      <c r="L70">
+        <v>0.163</v>
+      </c>
+      <c r="M70">
+        <v>1.40967706</v>
+      </c>
+      <c r="N70">
+        <v>-1.24667706</v>
+      </c>
+      <c r="O70">
+        <v>-0.311669265</v>
+      </c>
+      <c r="P70">
+        <v>-0.9350077950000001</v>
+      </c>
+      <c r="Q70">
+        <v>-0.8230077950000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2777068146317614</v>
+      </c>
+      <c r="T70">
+        <v>2.670783789883813</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02890733002351616</v>
+      </c>
+      <c r="W70">
+        <v>0.1783897234746801</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1156293200940647</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2119151926449461</v>
+      </c>
+      <c r="C71">
+        <v>-2.36725028347907</v>
+      </c>
+      <c r="D71">
+        <v>4.487399716520931</v>
+      </c>
+      <c r="E71">
+        <v>7.701650000000001</v>
+      </c>
+      <c r="F71">
+        <v>7.786650000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H71">
+        <v>11.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.275</v>
+      </c>
+      <c r="K71">
+        <v>0.112</v>
+      </c>
+      <c r="L71">
+        <v>0.163</v>
+      </c>
+      <c r="M71">
+        <v>1.430407605</v>
+      </c>
+      <c r="N71">
+        <v>-1.267407605</v>
+      </c>
+      <c r="O71">
+        <v>-0.31685190125</v>
+      </c>
+      <c r="P71">
+        <v>-0.9505557037500001</v>
+      </c>
+      <c r="Q71">
+        <v>-0.8385557037500001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2863650989747215</v>
+      </c>
+      <c r="T71">
+        <v>2.756938105686516</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02848838321158115</v>
+      </c>
+      <c r="W71">
+        <v>0.1784666840040325</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1139535328463246</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2136591926449461</v>
+      </c>
+      <c r="C72">
+        <v>-2.518395723015326</v>
+      </c>
+      <c r="D72">
+        <v>4.449104276984674</v>
+      </c>
+      <c r="E72">
+        <v>7.814500000000001</v>
+      </c>
+      <c r="F72">
+        <v>7.899500000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H72">
+        <v>11.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.275</v>
+      </c>
+      <c r="K72">
+        <v>0.112</v>
+      </c>
+      <c r="L72">
+        <v>0.163</v>
+      </c>
+      <c r="M72">
+        <v>1.45113815</v>
+      </c>
+      <c r="N72">
+        <v>-1.28813815</v>
+      </c>
+      <c r="O72">
+        <v>-0.3220345375000001</v>
+      </c>
+      <c r="P72">
+        <v>-0.9661036125000002</v>
+      </c>
+      <c r="Q72">
+        <v>-0.8541036125000002</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2956006022738789</v>
+      </c>
+      <c r="T72">
+        <v>2.848836042542734</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02808140630855856</v>
+      </c>
+      <c r="W72">
+        <v>0.1785414456611178</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1123256252342343</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2154031926449461</v>
+      </c>
+      <c r="C73">
+        <v>-2.668893067335838</v>
+      </c>
+      <c r="D73">
+        <v>4.411456932664161</v>
+      </c>
+      <c r="E73">
+        <v>7.92735</v>
+      </c>
+      <c r="F73">
+        <v>8.01235</v>
+      </c>
+      <c r="G73">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H73">
+        <v>11.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.275</v>
+      </c>
+      <c r="K73">
+        <v>0.112</v>
+      </c>
+      <c r="L73">
+        <v>0.163</v>
+      </c>
+      <c r="M73">
+        <v>1.471868695</v>
+      </c>
+      <c r="N73">
+        <v>-1.308868695</v>
+      </c>
+      <c r="O73">
+        <v>-0.32721717375</v>
+      </c>
+      <c r="P73">
+        <v>-0.9816515212499999</v>
+      </c>
+      <c r="Q73">
+        <v>-0.8696515212499999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3054730368350471</v>
+      </c>
+      <c r="T73">
+        <v>2.947071768147655</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02768589354364929</v>
+      </c>
+      <c r="W73">
+        <v>0.1786141013560316</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1107435741745971</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2171471926449461</v>
+      </c>
+      <c r="C74">
+        <v>-2.818758630513104</v>
+      </c>
+      <c r="D74">
+        <v>4.374441369486895</v>
+      </c>
+      <c r="E74">
+        <v>8.040199999999999</v>
+      </c>
+      <c r="F74">
+        <v>8.1252</v>
+      </c>
+      <c r="G74">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H74">
+        <v>11.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.275</v>
+      </c>
+      <c r="K74">
+        <v>0.112</v>
+      </c>
+      <c r="L74">
+        <v>0.163</v>
+      </c>
+      <c r="M74">
+        <v>1.49259924</v>
+      </c>
+      <c r="N74">
+        <v>-1.32959924</v>
+      </c>
+      <c r="O74">
+        <v>-0.33239981</v>
+      </c>
+      <c r="P74">
+        <v>-0.9971994299999999</v>
+      </c>
+      <c r="Q74">
+        <v>-0.8851994299999999</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3160506452934416</v>
+      </c>
+      <c r="T74">
+        <v>3.052324331295786</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02730136724443194</v>
+      </c>
+      <c r="W74">
+        <v>0.1786847388371979</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1092054689777278</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2188911926449461</v>
+      </c>
+      <c r="C75">
+        <v>-2.968008183624616</v>
+      </c>
+      <c r="D75">
+        <v>4.338041816375383</v>
+      </c>
+      <c r="E75">
+        <v>8.153049999999999</v>
+      </c>
+      <c r="F75">
+        <v>8.238049999999999</v>
+      </c>
+      <c r="G75">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H75">
+        <v>11.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.275</v>
+      </c>
+      <c r="K75">
+        <v>0.112</v>
+      </c>
+      <c r="L75">
+        <v>0.163</v>
+      </c>
+      <c r="M75">
+        <v>1.513329785</v>
+      </c>
+      <c r="N75">
+        <v>-1.350329785</v>
+      </c>
+      <c r="O75">
+        <v>-0.3375824462499999</v>
+      </c>
+      <c r="P75">
+        <v>-1.01274733875</v>
+      </c>
+      <c r="Q75">
+        <v>-0.9007473387499999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3274117803043097</v>
+      </c>
+      <c r="T75">
+        <v>3.165373380603036</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02692737591231643</v>
+      </c>
+      <c r="W75">
+        <v>0.1787534410449075</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1077095036492658</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2206351926449461</v>
+      </c>
+      <c r="C76">
+        <v>-3.116656977157642</v>
+      </c>
+      <c r="D76">
+        <v>4.302243022842357</v>
+      </c>
+      <c r="E76">
+        <v>8.265899999999998</v>
+      </c>
+      <c r="F76">
+        <v>8.350899999999999</v>
+      </c>
+      <c r="G76">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H76">
+        <v>11.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.275</v>
+      </c>
+      <c r="K76">
+        <v>0.112</v>
+      </c>
+      <c r="L76">
+        <v>0.163</v>
+      </c>
+      <c r="M76">
+        <v>1.53406033</v>
+      </c>
+      <c r="N76">
+        <v>-1.37106033</v>
+      </c>
+      <c r="O76">
+        <v>-0.3427650825</v>
+      </c>
+      <c r="P76">
+        <v>-1.0282952475</v>
+      </c>
+      <c r="Q76">
+        <v>-0.9162952475</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3396468487775525</v>
+      </c>
+      <c r="T76">
+        <v>3.287118510626231</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02656349245404188</v>
+      </c>
+      <c r="W76">
+        <v>0.1788202864361925</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1062539698161675</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2223791926449461</v>
+      </c>
+      <c r="C77">
+        <v>-3.264719762313722</v>
+      </c>
+      <c r="D77">
+        <v>4.267030237686279</v>
+      </c>
+      <c r="E77">
+        <v>8.37875</v>
+      </c>
+      <c r="F77">
+        <v>8.463750000000001</v>
+      </c>
+      <c r="G77">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H77">
+        <v>11.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.275</v>
+      </c>
+      <c r="K77">
+        <v>0.112</v>
+      </c>
+      <c r="L77">
+        <v>0.163</v>
+      </c>
+      <c r="M77">
+        <v>1.554790875</v>
+      </c>
+      <c r="N77">
+        <v>-1.391790875</v>
+      </c>
+      <c r="O77">
+        <v>-0.34794771875</v>
+      </c>
+      <c r="P77">
+        <v>-1.04384315625</v>
+      </c>
+      <c r="Q77">
+        <v>-0.9318431562500001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3528607227286546</v>
+      </c>
+      <c r="T77">
+        <v>3.41860325105128</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02620931255465466</v>
+      </c>
+      <c r="W77">
+        <v>0.1788853492837099</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1048372502186187</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2241231926449461</v>
+      </c>
+      <c r="C78">
+        <v>-3.412210811275434</v>
+      </c>
+      <c r="D78">
+        <v>4.232389188724566</v>
+      </c>
+      <c r="E78">
+        <v>8.4916</v>
+      </c>
+      <c r="F78">
+        <v>8.576600000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H78">
+        <v>11.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.275</v>
+      </c>
+      <c r="K78">
+        <v>0.112</v>
+      </c>
+      <c r="L78">
+        <v>0.163</v>
+      </c>
+      <c r="M78">
+        <v>1.57552142</v>
+      </c>
+      <c r="N78">
+        <v>-1.41252142</v>
+      </c>
+      <c r="O78">
+        <v>-0.3531303550000001</v>
+      </c>
+      <c r="P78">
+        <v>-1.059391065</v>
+      </c>
+      <c r="Q78">
+        <v>-0.9473910650000003</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3671757528423485</v>
+      </c>
+      <c r="T78">
+        <v>3.561045053178416</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.02586445317893551</v>
+      </c>
+      <c r="W78">
+        <v>0.1789486999510295</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1034578127157421</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2258671926449461</v>
+      </c>
+      <c r="C79">
+        <v>-3.559143936493928</v>
+      </c>
+      <c r="D79">
+        <v>4.198306063506072</v>
+      </c>
+      <c r="E79">
+        <v>8.60445</v>
+      </c>
+      <c r="F79">
+        <v>8.689450000000001</v>
+      </c>
+      <c r="G79">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H79">
+        <v>11.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.275</v>
+      </c>
+      <c r="K79">
+        <v>0.112</v>
+      </c>
+      <c r="L79">
+        <v>0.163</v>
+      </c>
+      <c r="M79">
+        <v>1.596251965</v>
+      </c>
+      <c r="N79">
+        <v>-1.433251965</v>
+      </c>
+      <c r="O79">
+        <v>-0.35831299125</v>
+      </c>
+      <c r="P79">
+        <v>-1.07493897375</v>
+      </c>
+      <c r="Q79">
+        <v>-0.9629389737500001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3827355681833202</v>
+      </c>
+      <c r="T79">
+        <v>3.715873098968783</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02552855118959869</v>
+      </c>
+      <c r="W79">
+        <v>0.1790104051464707</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1021142047583947</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2276111926449461</v>
+      </c>
+      <c r="C80">
+        <v>-3.705532509051968</v>
+      </c>
+      <c r="D80">
+        <v>4.164767490948033</v>
+      </c>
+      <c r="E80">
+        <v>8.7173</v>
+      </c>
+      <c r="F80">
+        <v>8.802300000000001</v>
+      </c>
+      <c r="G80">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H80">
+        <v>11.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.275</v>
+      </c>
+      <c r="K80">
+        <v>0.112</v>
+      </c>
+      <c r="L80">
+        <v>0.163</v>
+      </c>
+      <c r="M80">
+        <v>1.61698251</v>
+      </c>
+      <c r="N80">
+        <v>-1.45398251</v>
+      </c>
+      <c r="O80">
+        <v>-0.3634956275</v>
+      </c>
+      <c r="P80">
+        <v>-1.0904868825</v>
+      </c>
+      <c r="Q80">
+        <v>-0.9784868825</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.399709912191653</v>
+      </c>
+      <c r="T80">
+        <v>3.884776421649182</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02520126207178332</v>
+      </c>
+      <c r="W80">
+        <v>0.1790705281574134</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1008050482871333</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2293551926449461</v>
+      </c>
+      <c r="C81">
+        <v>-3.851389476153773</v>
+      </c>
+      <c r="D81">
+        <v>4.131760523846227</v>
+      </c>
+      <c r="E81">
+        <v>8.83015</v>
+      </c>
+      <c r="F81">
+        <v>8.915150000000001</v>
+      </c>
+      <c r="G81">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H81">
+        <v>11.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.275</v>
+      </c>
+      <c r="K81">
+        <v>0.112</v>
+      </c>
+      <c r="L81">
+        <v>0.163</v>
+      </c>
+      <c r="M81">
+        <v>1.637713055</v>
+      </c>
+      <c r="N81">
+        <v>-1.474713055</v>
+      </c>
+      <c r="O81">
+        <v>-0.36867826375</v>
+      </c>
+      <c r="P81">
+        <v>-1.10603479125</v>
+      </c>
+      <c r="Q81">
+        <v>-0.9940347912499999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4183008603912556</v>
+      </c>
+      <c r="T81">
+        <v>4.069765775061049</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02488225875441898</v>
+      </c>
+      <c r="W81">
+        <v>0.1791291290668132</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.09952903501767596</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2310991926449461</v>
+      </c>
+      <c r="C82">
+        <v>-3.99672737778975</v>
+      </c>
+      <c r="D82">
+        <v>4.09927262221025</v>
+      </c>
+      <c r="E82">
+        <v>8.943</v>
+      </c>
+      <c r="F82">
+        <v>9.028</v>
+      </c>
+      <c r="G82">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H82">
+        <v>11.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.275</v>
+      </c>
+      <c r="K82">
+        <v>0.112</v>
+      </c>
+      <c r="L82">
+        <v>0.163</v>
+      </c>
+      <c r="M82">
+        <v>1.6584436</v>
+      </c>
+      <c r="N82">
+        <v>-1.4954436</v>
+      </c>
+      <c r="O82">
+        <v>-0.3738609</v>
+      </c>
+      <c r="P82">
+        <v>-1.1215827</v>
+      </c>
+      <c r="Q82">
+        <v>-1.0095827</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4387509034108183</v>
+      </c>
+      <c r="T82">
+        <v>4.2732540638141</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02457123051998874</v>
+      </c>
+      <c r="W82">
+        <v>0.1791862649534781</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.09828492207995498</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2328431926449461</v>
+      </c>
+      <c r="C83">
+        <v>-4.141558362621121</v>
+      </c>
+      <c r="D83">
+        <v>4.067291637378879</v>
+      </c>
+      <c r="E83">
+        <v>9.05585</v>
+      </c>
+      <c r="F83">
+        <v>9.14085</v>
+      </c>
+      <c r="G83">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H83">
+        <v>11.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.275</v>
+      </c>
+      <c r="K83">
+        <v>0.112</v>
+      </c>
+      <c r="L83">
+        <v>0.163</v>
+      </c>
+      <c r="M83">
+        <v>1.679174145</v>
+      </c>
+      <c r="N83">
+        <v>-1.516174145</v>
+      </c>
+      <c r="O83">
+        <v>-0.37904353625</v>
+      </c>
+      <c r="P83">
+        <v>-1.13713060875</v>
+      </c>
+      <c r="Q83">
+        <v>-1.02513060875</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4613535825377035</v>
+      </c>
+      <c r="T83">
+        <v>4.498162172435896</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02426788199505061</v>
+      </c>
+      <c r="W83">
+        <v>0.1792419900775092</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.09707152798020247</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2345871926449461</v>
+      </c>
+      <c r="C84">
+        <v>-4.285894203126792</v>
+      </c>
+      <c r="D84">
+        <v>4.035805796873208</v>
+      </c>
+      <c r="E84">
+        <v>9.168699999999999</v>
+      </c>
+      <c r="F84">
+        <v>9.2537</v>
+      </c>
+      <c r="G84">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H84">
+        <v>11.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.275</v>
+      </c>
+      <c r="K84">
+        <v>0.112</v>
+      </c>
+      <c r="L84">
+        <v>0.163</v>
+      </c>
+      <c r="M84">
+        <v>1.69990469</v>
+      </c>
+      <c r="N84">
+        <v>-1.53690469</v>
+      </c>
+      <c r="O84">
+        <v>-0.3842261725</v>
+      </c>
+      <c r="P84">
+        <v>-1.1526785175</v>
+      </c>
+      <c r="Q84">
+        <v>-1.0406785175</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4864676704564648</v>
+      </c>
+      <c r="T84">
+        <v>4.748060070904557</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02397193221462316</v>
+      </c>
+      <c r="W84">
+        <v>0.1792963560521737</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.09588772885849262</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2363311926449461</v>
+      </c>
+      <c r="C85">
+        <v>-4.429746310052046</v>
+      </c>
+      <c r="D85">
+        <v>4.004803689947954</v>
+      </c>
+      <c r="E85">
+        <v>9.281549999999999</v>
+      </c>
+      <c r="F85">
+        <v>9.36655</v>
+      </c>
+      <c r="G85">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H85">
+        <v>11.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.275</v>
+      </c>
+      <c r="K85">
+        <v>0.112</v>
+      </c>
+      <c r="L85">
+        <v>0.163</v>
+      </c>
+      <c r="M85">
+        <v>1.720635235</v>
+      </c>
+      <c r="N85">
+        <v>-1.557635235</v>
+      </c>
+      <c r="O85">
+        <v>-0.38940880875</v>
+      </c>
+      <c r="P85">
+        <v>-1.16822642625</v>
+      </c>
+      <c r="Q85">
+        <v>-1.05622642625</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5145363569539039</v>
+      </c>
+      <c r="T85">
+        <v>5.027357722134236</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02368311375420602</v>
+      </c>
+      <c r="W85">
+        <v>0.1793494120033524</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.09473245501682404</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2380751926449461</v>
+      </c>
+      <c r="C86">
+        <v>-4.573125746196413</v>
+      </c>
+      <c r="D86">
+        <v>3.974274253803587</v>
+      </c>
+      <c r="E86">
+        <v>9.394399999999999</v>
+      </c>
+      <c r="F86">
+        <v>9.4794</v>
+      </c>
+      <c r="G86">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H86">
+        <v>11.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.275</v>
+      </c>
+      <c r="K86">
+        <v>0.112</v>
+      </c>
+      <c r="L86">
+        <v>0.163</v>
+      </c>
+      <c r="M86">
+        <v>1.74136578</v>
+      </c>
+      <c r="N86">
+        <v>-1.57836578</v>
+      </c>
+      <c r="O86">
+        <v>-0.394591445</v>
+      </c>
+      <c r="P86">
+        <v>-1.183774335</v>
+      </c>
+      <c r="Q86">
+        <v>-1.071774335</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5461136292635227</v>
+      </c>
+      <c r="T86">
+        <v>5.341567579767624</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.0234011719237988</v>
+      </c>
+      <c r="W86">
+        <v>0.1794012047175982</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.09360468769519525</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2398191926449461</v>
+      </c>
+      <c r="C87">
+        <v>-4.716043239575627</v>
+      </c>
+      <c r="D87">
+        <v>3.944206760424373</v>
+      </c>
+      <c r="E87">
+        <v>9.507249999999999</v>
+      </c>
+      <c r="F87">
+        <v>9.59225</v>
+      </c>
+      <c r="G87">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H87">
+        <v>11.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.275</v>
+      </c>
+      <c r="K87">
+        <v>0.112</v>
+      </c>
+      <c r="L87">
+        <v>0.163</v>
+      </c>
+      <c r="M87">
+        <v>1.762096325</v>
+      </c>
+      <c r="N87">
+        <v>-1.599096325</v>
+      </c>
+      <c r="O87">
+        <v>-0.39977408125</v>
+      </c>
+      <c r="P87">
+        <v>-1.19932224375</v>
+      </c>
+      <c r="Q87">
+        <v>-1.08732224375</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5819012045477576</v>
+      </c>
+      <c r="T87">
+        <v>5.697672085085467</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02312586401881293</v>
+      </c>
+      <c r="W87">
+        <v>0.1794517787797441</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.09250345607525179</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2415631926449461</v>
+      </c>
+      <c r="C88">
+        <v>-4.858509195990621</v>
+      </c>
+      <c r="D88">
+        <v>3.914590804009379</v>
+      </c>
+      <c r="E88">
+        <v>9.620099999999999</v>
+      </c>
+      <c r="F88">
+        <v>9.7051</v>
+      </c>
+      <c r="G88">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H88">
+        <v>11.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.275</v>
+      </c>
+      <c r="K88">
+        <v>0.112</v>
+      </c>
+      <c r="L88">
+        <v>0.163</v>
+      </c>
+      <c r="M88">
+        <v>1.78282687</v>
+      </c>
+      <c r="N88">
+        <v>-1.61982687</v>
+      </c>
+      <c r="O88">
+        <v>-0.4049567175</v>
+      </c>
+      <c r="P88">
+        <v>-1.2148701525</v>
+      </c>
+      <c r="Q88">
+        <v>-1.1028701525</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.622801290586883</v>
+      </c>
+      <c r="T88">
+        <v>6.10464866259157</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02285695862324534</v>
+      </c>
+      <c r="W88">
+        <v>0.1795011767009098</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.09142783449298142</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2433071926449461</v>
+      </c>
+      <c r="C89">
+        <v>-5.000533711034485</v>
+      </c>
+      <c r="D89">
+        <v>3.885416288965515</v>
+      </c>
+      <c r="E89">
+        <v>9.732949999999999</v>
+      </c>
+      <c r="F89">
+        <v>9.81795</v>
+      </c>
+      <c r="G89">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H89">
+        <v>11.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.275</v>
+      </c>
+      <c r="K89">
+        <v>0.112</v>
+      </c>
+      <c r="L89">
+        <v>0.163</v>
+      </c>
+      <c r="M89">
+        <v>1.803557415</v>
+      </c>
+      <c r="N89">
+        <v>-1.640557415</v>
+      </c>
+      <c r="O89">
+        <v>-0.41013935375</v>
+      </c>
+      <c r="P89">
+        <v>-1.23041806125</v>
+      </c>
+      <c r="Q89">
+        <v>-1.11841806125</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.669993697555105</v>
+      </c>
+      <c r="T89">
+        <v>6.574237021252461</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02259423496090919</v>
+      </c>
+      <c r="W89">
+        <v>0.179549439037681</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.09037693984363682</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2450511926449461</v>
+      </c>
+      <c r="C90">
+        <v>-5.142126581566474</v>
+      </c>
+      <c r="D90">
+        <v>3.856673418433525</v>
+      </c>
+      <c r="E90">
+        <v>9.845799999999999</v>
+      </c>
+      <c r="F90">
+        <v>9.9308</v>
+      </c>
+      <c r="G90">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H90">
+        <v>11.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.275</v>
+      </c>
+      <c r="K90">
+        <v>0.112</v>
+      </c>
+      <c r="L90">
+        <v>0.163</v>
+      </c>
+      <c r="M90">
+        <v>1.82428796</v>
+      </c>
+      <c r="N90">
+        <v>-1.66128796</v>
+      </c>
+      <c r="O90">
+        <v>-0.41532199</v>
+      </c>
+      <c r="P90">
+        <v>-1.24596597</v>
+      </c>
+      <c r="Q90">
+        <v>-1.13396597</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.725051505684697</v>
+      </c>
+      <c r="T90">
+        <v>7.122090106356833</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02233748229089886</v>
+      </c>
+      <c r="W90">
+        <v>0.1795966045031619</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.08934992916359541</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2467951926449461</v>
+      </c>
+      <c r="C91">
+        <v>-5.283297316680483</v>
+      </c>
+      <c r="D91">
+        <v>3.828352683319516</v>
+      </c>
+      <c r="E91">
+        <v>9.958649999999999</v>
+      </c>
+      <c r="F91">
+        <v>10.04365</v>
+      </c>
+      <c r="G91">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H91">
+        <v>11.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.275</v>
+      </c>
+      <c r="K91">
+        <v>0.112</v>
+      </c>
+      <c r="L91">
+        <v>0.163</v>
+      </c>
+      <c r="M91">
+        <v>1.845018505</v>
+      </c>
+      <c r="N91">
+        <v>-1.682018505</v>
+      </c>
+      <c r="O91">
+        <v>-0.42050462625</v>
+      </c>
+      <c r="P91">
+        <v>-1.26151387875</v>
+      </c>
+      <c r="Q91">
+        <v>-1.14951387875</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.790119824383306</v>
+      </c>
+      <c r="T91">
+        <v>7.769552843298364</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02208649934381011</v>
+      </c>
+      <c r="W91">
+        <v>0.1796427100705421</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.0883459973752404</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2485391926449461</v>
+      </c>
+      <c r="C92">
+        <v>-5.424055148193769</v>
+      </c>
+      <c r="D92">
+        <v>3.800444851806231</v>
+      </c>
+      <c r="E92">
+        <v>10.0715</v>
+      </c>
+      <c r="F92">
+        <v>10.1565</v>
+      </c>
+      <c r="G92">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H92">
+        <v>11.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.275</v>
+      </c>
+      <c r="K92">
+        <v>0.112</v>
+      </c>
+      <c r="L92">
+        <v>0.163</v>
+      </c>
+      <c r="M92">
+        <v>1.86574905</v>
+      </c>
+      <c r="N92">
+        <v>-1.70274905</v>
+      </c>
+      <c r="O92">
+        <v>-0.4256872625000001</v>
+      </c>
+      <c r="P92">
+        <v>-1.2770617875</v>
+      </c>
+      <c r="Q92">
+        <v>-1.1650617875</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8682018068216366</v>
+      </c>
+      <c r="T92">
+        <v>8.546508127628201</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02184109379554555</v>
+      </c>
+      <c r="W92">
+        <v>0.1796877910697583</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.08736437518218221</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2502831926449461</v>
+      </c>
+      <c r="C93">
+        <v>-5.564409040680228</v>
+      </c>
+      <c r="D93">
+        <v>3.772940959319774</v>
+      </c>
+      <c r="E93">
+        <v>10.18435</v>
+      </c>
+      <c r="F93">
+        <v>10.26935</v>
+      </c>
+      <c r="G93">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H93">
+        <v>11.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.275</v>
+      </c>
+      <c r="K93">
+        <v>0.112</v>
+      </c>
+      <c r="L93">
+        <v>0.163</v>
+      </c>
+      <c r="M93">
+        <v>1.886479595</v>
+      </c>
+      <c r="N93">
+        <v>-1.723479595</v>
+      </c>
+      <c r="O93">
+        <v>-0.43086989875</v>
+      </c>
+      <c r="P93">
+        <v>-1.29260969625</v>
+      </c>
+      <c r="Q93">
+        <v>-1.18060969625</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.9636353409129297</v>
+      </c>
+      <c r="T93">
+        <v>9.496120141809113</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02160108177581428</v>
+      </c>
+      <c r="W93">
+        <v>0.1797318812777829</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.08640432710325707</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2520271926449461</v>
+      </c>
+      <c r="C94">
+        <v>-5.704367701071149</v>
+      </c>
+      <c r="D94">
+        <v>3.745832298928852</v>
+      </c>
+      <c r="E94">
+        <v>10.2972</v>
+      </c>
+      <c r="F94">
+        <v>10.3822</v>
+      </c>
+      <c r="G94">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H94">
+        <v>11.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.275</v>
+      </c>
+      <c r="K94">
+        <v>0.112</v>
+      </c>
+      <c r="L94">
+        <v>0.163</v>
+      </c>
+      <c r="M94">
+        <v>1.90721014</v>
+      </c>
+      <c r="N94">
+        <v>-1.74421014</v>
+      </c>
+      <c r="O94">
+        <v>-0.436052535</v>
+      </c>
+      <c r="P94">
+        <v>-1.308157605</v>
+      </c>
+      <c r="Q94">
+        <v>-1.196157605</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.082927258527046</v>
+      </c>
+      <c r="T94">
+        <v>10.68313515953526</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02136628740868586</v>
+      </c>
+      <c r="W94">
+        <v>0.1797750130030244</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.0854651496347435</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2537711926449461</v>
+      </c>
+      <c r="C95">
+        <v>-5.843939587845021</v>
+      </c>
+      <c r="D95">
+        <v>3.719110412154979</v>
+      </c>
+      <c r="E95">
+        <v>10.41005</v>
+      </c>
+      <c r="F95">
+        <v>10.49505</v>
+      </c>
+      <c r="G95">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H95">
+        <v>11.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.275</v>
+      </c>
+      <c r="K95">
+        <v>0.112</v>
+      </c>
+      <c r="L95">
+        <v>0.163</v>
+      </c>
+      <c r="M95">
+        <v>1.927940685</v>
+      </c>
+      <c r="N95">
+        <v>-1.764940685</v>
+      </c>
+      <c r="O95">
+        <v>-0.4412351712500001</v>
+      </c>
+      <c r="P95">
+        <v>-1.32370551375</v>
+      </c>
+      <c r="Q95">
+        <v>-1.21170551375</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.236302581173767</v>
+      </c>
+      <c r="T95">
+        <v>12.20929732518315</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02113654238278601</v>
+      </c>
+      <c r="W95">
+        <v>0.1798172171642822</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.08454616953114402</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2555151926449461</v>
+      </c>
+      <c r="C96">
+        <v>-5.983132919826779</v>
+      </c>
+      <c r="D96">
+        <v>3.692767080173222</v>
+      </c>
+      <c r="E96">
+        <v>10.5229</v>
+      </c>
+      <c r="F96">
+        <v>10.6079</v>
+      </c>
+      <c r="G96">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H96">
+        <v>11.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.275</v>
+      </c>
+      <c r="K96">
+        <v>0.112</v>
+      </c>
+      <c r="L96">
+        <v>0.163</v>
+      </c>
+      <c r="M96">
+        <v>1.94867123</v>
+      </c>
+      <c r="N96">
+        <v>-1.78567123</v>
+      </c>
+      <c r="O96">
+        <v>-0.4464178075</v>
+      </c>
+      <c r="P96">
+        <v>-1.3392534225</v>
+      </c>
+      <c r="Q96">
+        <v>-1.2272534225</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.440803011369395</v>
+      </c>
+      <c r="T96">
+        <v>14.24418021271368</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02091168554892659</v>
+      </c>
+      <c r="W96">
+        <v>0.1798585233646622</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.08364674219570634</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2572591926449461</v>
+      </c>
+      <c r="C97">
+        <v>-6.121955684615718</v>
+      </c>
+      <c r="D97">
+        <v>3.666794315384283</v>
+      </c>
+      <c r="E97">
+        <v>10.63575</v>
+      </c>
+      <c r="F97">
+        <v>10.72075</v>
+      </c>
+      <c r="G97">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H97">
+        <v>11.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.275</v>
+      </c>
+      <c r="K97">
+        <v>0.112</v>
+      </c>
+      <c r="L97">
+        <v>0.163</v>
+      </c>
+      <c r="M97">
+        <v>1.969401775</v>
+      </c>
+      <c r="N97">
+        <v>-1.806401775</v>
+      </c>
+      <c r="O97">
+        <v>-0.45160044375</v>
+      </c>
+      <c r="P97">
+        <v>-1.35480133125</v>
+      </c>
+      <c r="Q97">
+        <v>-1.24280133125</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.727103613643275</v>
+      </c>
+      <c r="T97">
+        <v>17.09301625525642</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02069156254314841</v>
+      </c>
+      <c r="W97">
+        <v>0.1798989599608236</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.08276625017259365</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2590031926449461</v>
+      </c>
+      <c r="C98">
+        <v>-6.260415646660227</v>
+      </c>
+      <c r="D98">
+        <v>3.641184353339773</v>
+      </c>
+      <c r="E98">
+        <v>10.7486</v>
+      </c>
+      <c r="F98">
+        <v>10.8336</v>
+      </c>
+      <c r="G98">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H98">
+        <v>11.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.275</v>
+      </c>
+      <c r="K98">
+        <v>0.112</v>
+      </c>
+      <c r="L98">
+        <v>0.163</v>
+      </c>
+      <c r="M98">
+        <v>1.99013232</v>
+      </c>
+      <c r="N98">
+        <v>-1.82713232</v>
+      </c>
+      <c r="O98">
+        <v>-0.45678308</v>
+      </c>
+      <c r="P98">
+        <v>-1.37034924</v>
+      </c>
+      <c r="Q98">
+        <v>-1.25834924</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.15655451705409</v>
+      </c>
+      <c r="T98">
+        <v>21.36627031907048</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02047602543332395</v>
+      </c>
+      <c r="W98">
+        <v>0.1799385541278984</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.08190410173329576</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2607471926449461</v>
+      </c>
+      <c r="C99">
+        <v>-6.398520354996507</v>
+      </c>
+      <c r="D99">
+        <v>3.615929645003493</v>
+      </c>
+      <c r="E99">
+        <v>10.86145</v>
+      </c>
+      <c r="F99">
+        <v>10.94645</v>
+      </c>
+      <c r="G99">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H99">
+        <v>11.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.275</v>
+      </c>
+      <c r="K99">
+        <v>0.112</v>
+      </c>
+      <c r="L99">
+        <v>0.163</v>
+      </c>
+      <c r="M99">
+        <v>2.010862865</v>
+      </c>
+      <c r="N99">
+        <v>-1.847862865</v>
+      </c>
+      <c r="O99">
+        <v>-0.46196571625</v>
+      </c>
+      <c r="P99">
+        <v>-1.38589714875</v>
+      </c>
+      <c r="Q99">
+        <v>-1.27389714875</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.872306022738786</v>
+      </c>
+      <c r="T99">
+        <v>28.48836042542731</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02026493238761958</v>
+      </c>
+      <c r="W99">
+        <v>0.1799773319203943</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.08105972955047835</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2624911926449461</v>
+      </c>
+      <c r="C100">
+        <v>-6.536277150667434</v>
+      </c>
+      <c r="D100">
+        <v>3.591022849332566</v>
+      </c>
+      <c r="E100">
+        <v>10.9743</v>
+      </c>
+      <c r="F100">
+        <v>11.0593</v>
+      </c>
+      <c r="G100">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H100">
+        <v>11.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.275</v>
+      </c>
+      <c r="K100">
+        <v>0.112</v>
+      </c>
+      <c r="L100">
+        <v>0.163</v>
+      </c>
+      <c r="M100">
+        <v>2.03159341</v>
+      </c>
+      <c r="N100">
+        <v>-1.86859341</v>
+      </c>
+      <c r="O100">
+        <v>-0.4671483525</v>
+      </c>
+      <c r="P100">
+        <v>-1.4014450575</v>
+      </c>
+      <c r="Q100">
+        <v>-1.2894450575</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.303809034108179</v>
+      </c>
+      <c r="T100">
+        <v>42.73254063814097</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.02005814736325611</v>
+      </c>
+      <c r="W100">
+        <v>0.1800153183293699</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.08023258945302447</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2642351926449461</v>
+      </c>
+      <c r="C101">
+        <v>-6.673693173836932</v>
+      </c>
+      <c r="D101">
+        <v>3.566456826163069</v>
+      </c>
+      <c r="E101">
+        <v>11.08715</v>
+      </c>
+      <c r="F101">
+        <v>11.17215</v>
+      </c>
+      <c r="G101">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H101">
+        <v>11.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.275</v>
+      </c>
+      <c r="K101">
+        <v>0.112</v>
+      </c>
+      <c r="L101">
+        <v>0.163</v>
+      </c>
+      <c r="M101">
+        <v>2.052323955</v>
+      </c>
+      <c r="N101">
+        <v>-1.889323955</v>
+      </c>
+      <c r="O101">
+        <v>-0.47233098875</v>
+      </c>
+      <c r="P101">
+        <v>-1.41699296625</v>
+      </c>
+      <c r="Q101">
+        <v>-1.30499296625</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.598318068216358</v>
+      </c>
+      <c r="T101">
+        <v>85.46508127628192</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01985553981413232</v>
+      </c>
+      <c r="W101">
+        <v>0.1800525373361439</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.07942215925652929</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
